--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail14 Features.xlsx
@@ -6289,7 +6289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6300,29 +6300,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6343,115 +6341,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6468,72 +6456,66 @@
         <v>5.245088280647029e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.116264210506635</v>
+        <v>3.011649918167195e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.226808341057517</v>
+        <v>5.54413458865143e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.011649918167195e-06</v>
+        <v>0.07437813379941098</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.54413458865143e-06</v>
+        <v>0.1958265291112498</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.07437813379941098</v>
+        <v>0.04382903136367903</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1958265291112498</v>
+        <v>1.813122414385639</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04382903136367903</v>
+        <v>1.710881122075792</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.770126706624914</v>
+        <v>4.479080465963722</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.710881122075792</v>
+        <v>9.845422178821443e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.479080465963722</v>
+        <v>48273312.77612509</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>9.845422178821443e-15</v>
+        <v>2.434766688787075e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>48273312.77612509</v>
+        <v>22.94291259990728</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.434766688787075e-06</v>
+        <v>0.0001331154543968851</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>22.94291259990728</v>
+        <v>9.050668658036814</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001331154543968851</v>
+        <v>1.189228028386957</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.050668658036814</v>
+        <v>0.01090409962106043</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.189228028386957</v>
+        <v>2.871232266971726</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01090409962106043</v>
+        <v>0.9535824370869492</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.871232266971726</v>
+        <v>1.686063982975464</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9535824370869492</v>
+        <v>96</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.686063982975464</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>96</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2127824861882016</v>
       </c>
     </row>
@@ -6548,72 +6530,66 @@
         <v>4.465030079850065e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.88888910947009</v>
+        <v>2.590732500113487e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>4.728634650950079</v>
+        <v>5.579338453009374e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.590732500113487e-06</v>
+        <v>0.07101831101589808</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.579338453009374e-06</v>
+        <v>0.2015753661250076</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.07101831101589808</v>
+        <v>0.04563053208361833</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2015753661250076</v>
+        <v>1.816271207043826</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04563053208361833</v>
+        <v>1.69070675062357</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.771777580770846</v>
+        <v>4.527128844469844</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.69070675062357</v>
+        <v>9.637543759424909e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.527128844469844</v>
+        <v>49382339.66501781</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.637543759424909e-15</v>
+        <v>2.380852326232938e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>49382339.66501781</v>
+        <v>23.50226331216068</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.380852326232938e-06</v>
+        <v>0.0001296032480743207</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>23.50226331216068</v>
+        <v>8.064731565730282</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001296032480743207</v>
+        <v>1.255236178861822</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.064731565730282</v>
+        <v>0.008429381675869827</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.255236178861822</v>
+        <v>3.004170340255187</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008429381675869827</v>
+        <v>0.9528195863631961</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.004170340255187</v>
+        <v>1.660955044051481</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9528195863631961</v>
+        <v>96</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.660955044051481</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>96</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2157327764243304</v>
       </c>
     </row>
@@ -6628,72 +6604,66 @@
         <v>3.826828811389683e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.571533245164932</v>
+        <v>2.245933762182241e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4.053882046377446</v>
+        <v>5.607949275316912e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.245933762182241e-06</v>
+        <v>0.06720810552393924</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.607949275316912e-06</v>
+        <v>0.2100173919416444</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.06720810552393924</v>
+        <v>0.04858004390309333</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2100173919416444</v>
+        <v>1.811522956998636</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04858004390309333</v>
+        <v>1.677556415140164</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.768532850429182</v>
+        <v>4.605545937077909</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.677556415140164</v>
+        <v>9.312147276160652e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.605545937077909</v>
+        <v>50916246.27999039</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.312147276160652e-15</v>
+        <v>2.304782153656961e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>50916246.27999039</v>
+        <v>24.14140783556251</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.304782153656961e-06</v>
+        <v>0.000132106807075661</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>24.14140783556251</v>
+        <v>7.486507659788943</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000132106807075661</v>
+        <v>1.379453393194769</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.486507659788943</v>
+        <v>0.007404295497378775</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.379453393194769</v>
+        <v>3.077006950188004</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.007404295497378775</v>
+        <v>0.9525370954408174</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.077006950188004</v>
+        <v>1.678023567940863</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9525370954408174</v>
+        <v>96</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.678023567940863</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>96</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.224230573633707</v>
       </c>
     </row>
@@ -6708,72 +6678,66 @@
         <v>3.310736556924749e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.144605225939993</v>
+        <v>1.952529529223379e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3.159760914292917</v>
+        <v>5.631032129261255e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.952529529223379e-06</v>
+        <v>0.06222396429558769</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.631032129261255e-06</v>
+        <v>0.2190604765946965</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.06222396429558769</v>
+        <v>0.05181635498107966</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2190604765946965</v>
+        <v>1.806769096728181</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05181635498107966</v>
+        <v>1.650000264743839</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.763441119949985</v>
+        <v>4.767049868528181</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.650000264743839</v>
+        <v>8.69185919996689e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.767049868528181</v>
+        <v>54967399.91541526</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>8.69185919996689e-15</v>
+        <v>2.131608186688683e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>54967399.91541526</v>
+        <v>26.26171422934512</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.131608186688683e-06</v>
+        <v>0.0001442780328176127</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>26.26171422934512</v>
+        <v>8.013350112685227</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001442780328176127</v>
+        <v>1.406022947522221</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.013350112685227</v>
+        <v>0.009264637862290899</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.406022947522221</v>
+        <v>3.038160393031359</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009264637862290899</v>
+        <v>0.953187800581653</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.038160393031359</v>
+        <v>1.686645952513572</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.953187800581653</v>
+        <v>99</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.686645952513572</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2542884556051581</v>
       </c>
     </row>
@@ -6788,72 +6752,66 @@
         <v>2.904146802694656e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.6139508307349756</v>
+        <v>1.700903627895402e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2.096504689276848</v>
+        <v>5.649333807485443e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.700903627895402e-06</v>
+        <v>0.05547442792259852</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.649333807485443e-06</v>
+        <v>0.2276797775480656</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.05547442792259852</v>
+        <v>0.05487231049395249</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2276797775480656</v>
+        <v>1.803899498183203</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05487231049395249</v>
+        <v>1.61385372859892</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.764704270685964</v>
+        <v>5.239400740953881</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.61385372859892</v>
+        <v>7.19529887994412e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.239400740953881</v>
+        <v>67092682.53125167</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.19529887994412e-15</v>
+        <v>1.746369032330822e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>67092682.53125167</v>
+        <v>32.38912020084074</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.746369032330822e-06</v>
+        <v>0.0001686528525574045</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>32.38912020084074</v>
+        <v>10.83780790443303</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001686528525574045</v>
+        <v>1.108432005480274</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.83780790443303</v>
+        <v>0.01980964027715872</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.108432005480274</v>
+        <v>2.753756862224471</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01980964027715872</v>
+        <v>0.9535321412425525</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.753756862224471</v>
+        <v>1.647689943809944</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9535321412425525</v>
+        <v>99</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.647689943809944</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3537008735823576</v>
       </c>
     </row>
@@ -6868,72 +6826,66 @@
         <v>2.600433147868771e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.04011105899825183</v>
+        <v>1.472030389419731e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.070900622850061</v>
+        <v>5.663339300046616e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.472030389419731e-06</v>
+        <v>0.04601261688735809</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.663339300046616e-06</v>
+        <v>0.2314074479476349</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.04601261688735809</v>
+        <v>0.05561965580649521</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2314074479476349</v>
+        <v>1.833549094616905</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.05561965580649521</v>
+        <v>1.76464216288153</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.799025608206936</v>
+        <v>4.254186869968926</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.76464216288153</v>
+        <v>5.531079865668239e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.254186869968926</v>
+        <v>84752381.64758421</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.531079865668239e-15</v>
+        <v>1.393731268558856e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>84752381.64758421</v>
+        <v>39.72955969659589</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.393731268558856e-06</v>
+        <v>0.0001954790897414783</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>39.72955969659589</v>
+        <v>11.87508782090145</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001954790897414783</v>
+        <v>1.170637978548664</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.87508782090145</v>
+        <v>0.02756601373564285</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.170637978548664</v>
+        <v>2.814166582589975</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02756601373564285</v>
+        <v>0.955874584560213</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.814166582589975</v>
+        <v>1.638535274286384</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.955874584560213</v>
+        <v>124</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.638535274286384</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>124</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.4796952158110461</v>
       </c>
     </row>
@@ -6948,72 +6900,66 @@
         <v>2.395847934749754e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.4496507267300965</v>
+        <v>1.266020970796335e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.4050469569213848</v>
+        <v>5.673366496949198e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.266020970796335e-06</v>
+        <v>0.0342145183263909</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5.673366496949198e-06</v>
+        <v>0.228390482972059</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.0342145183263909</v>
+        <v>0.05329217581736892</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.228390482972059</v>
+        <v>1.88532302770774</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.05329217581736892</v>
+        <v>1.721796094742395</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.877152900763319</v>
+        <v>4.908403677136268</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.721796094742395</v>
+        <v>3.992619362543558e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.908403677136268</v>
+        <v>116048078.6688946</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.992619362543558e-15</v>
+        <v>1.032046633677338e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>116048078.6688946</v>
+        <v>53.76923005080904</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.032046633677338e-06</v>
+        <v>0.0001611012123686386</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>53.76923005080904</v>
+        <v>10.19483278090086</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001611012123686386</v>
+        <v>1.509712904458605</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.19483278090086</v>
+        <v>0.01674399255292672</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.509712904458605</v>
+        <v>3.382538362395569</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01674399255292672</v>
+        <v>0.9569697014181595</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.382538362395569</v>
+        <v>1.471282692054777</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9569697014181595</v>
+        <v>136</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.471282692054777</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.7546590912889548</v>
       </c>
     </row>
@@ -7028,72 +6974,66 @@
         <v>2.273986106833713e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.7731774747423125</v>
+        <v>1.098152347992225e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.1370406232747681</v>
+        <v>5.679916116505595e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.098152347992225e-06</v>
+        <v>0.02213133136425547</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>5.679916116505595e-06</v>
+        <v>0.2229706950341518</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.02213133136425547</v>
+        <v>0.05017841218760021</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2229706950341518</v>
+        <v>1.897527262763741</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.05017841218760021</v>
+        <v>1.914670804518871</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.906178611906611</v>
+        <v>5.700842500019347</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.914670804518871</v>
+        <v>1.219847823670623e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.700842500019347</v>
+        <v>378469486.3472065</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.219847823670623e-15</v>
+        <v>3.170012390033366e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>378469486.3472065</v>
+        <v>174.7299679486313</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.170012390033366e-07</v>
+        <v>0.0001074209008769529</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>174.7299679486313</v>
+        <v>9.194232689392113</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001074209008769529</v>
+        <v>1.213145125819852</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.194232689392113</v>
+        <v>0.009080709276744601</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.213145125819852</v>
+        <v>3.559467527906606</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.009080709276744601</v>
+        <v>0.9572000900157712</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.559467527906606</v>
+        <v>1.375797108536348</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9572000900157712</v>
+        <v>136</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.375797108536348</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.9533897047304155</v>
       </c>
     </row>
@@ -7108,72 +7048,66 @@
         <v>2.211096913940062e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.9415336749605158</v>
+        <v>9.7310692924195e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.07841461962287744</v>
+        <v>5.683649141199767e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>9.7310692924195e-07</v>
+        <v>0.01153228850386614</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>5.683649141199767e-06</v>
+        <v>0.2185772314734516</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.01153228850386614</v>
+        <v>0.04789286230489787</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2185772314734516</v>
+        <v>1.90909465491418</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.04789286230489787</v>
+        <v>2.25436987983744</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.926177489829276</v>
+        <v>4.692538141401272</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.25436987983744</v>
+        <v>6.166385674729749e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.692538141401272</v>
+        <v>749447188.1909198</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.166385674729749e-16</v>
+        <v>1.601848454665072e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>749447188.1909198</v>
+        <v>346.3480550257972</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.601848454665072e-07</v>
+        <v>9.970364849419556e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>346.3480550257972</v>
+        <v>7.657671669074529</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>9.970364849419556e-05</v>
+        <v>1.299111051692813</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.657671669074529</v>
+        <v>0.005846615505981168</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.299111051692813</v>
+        <v>3.625790789763586</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.005846615505981168</v>
+        <v>0.9570292112763196</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.625790789763586</v>
+        <v>1.300216515571926</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9570292112763196</v>
+        <v>138</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.300216515571926</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.9096252553594202</v>
       </c>
     </row>
@@ -7188,72 +7122,66 @@
         <v>2.187918609060141e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.000777661877919</v>
+        <v>8.748417331690713e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.07892387594234274</v>
+        <v>5.685151241384786e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8.748417331690713e-07</v>
+        <v>0.002315105368069363</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>5.685151241384786e-06</v>
+        <v>0.2139084069517649</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.002315105368069363</v>
+        <v>0.04574983616268497</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2139084069517649</v>
+        <v>1.910449765491057</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.04574983616268497</v>
+        <v>2.750645364928486</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.93095291360073</v>
+        <v>5.000599305293038</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.750645364928486</v>
+        <v>5.430029565168941e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.000599305293038</v>
+        <v>847747759.6235607</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>5.430029565168941e-16</v>
+        <v>1.417210480545137e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>847747759.6235607</v>
+        <v>390.2433361016099</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.417210480545137e-07</v>
+        <v>0.0001061946707710235</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>390.2433361016099</v>
+        <v>7.195755755655146</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001061946707710235</v>
+        <v>2.040301586836417</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.195755755655146</v>
+        <v>0.005498643333434667</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>2.040301586836417</v>
+        <v>3.733522906093571</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.005498643333434667</v>
+        <v>0.9582407689540792</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.733522906093571</v>
+        <v>1.24411959256028</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9582407689540792</v>
+        <v>171</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.24411959256028</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>171</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.8669537932194595</v>
       </c>
     </row>
@@ -7268,72 +7196,66 @@
         <v>2.193739655364922e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.988383061107368</v>
+        <v>8.678546087449132e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.07285214902346349</v>
+        <v>5.684704522695478e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>8.678546087449132e-07</v>
+        <v>-0.006253983186040295</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5.684704522695478e-06</v>
+        <v>0.207088317605804</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.006253983186040295</v>
+        <v>0.04291394987266506</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.207088317605804</v>
+        <v>1.912789531435155</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.04291394987266506</v>
+        <v>2.546431800259399</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.934263385330369</v>
+        <v>4.9241582750831</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.546431800259399</v>
+        <v>5.599926140868609e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.9241582750831</v>
+        <v>816518384.0301011</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>5.599926140868609e-16</v>
+        <v>1.472436813611501e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>816518384.0301011</v>
+        <v>373.3483478120448</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.472436813611501e-07</v>
+        <v>0.0001116695300309236</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>373.3483478120448</v>
+        <v>8.105868015294176</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001116695300309236</v>
+        <v>1.808029203415473</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.105868015294176</v>
+        <v>0.007337257222377077</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.808029203415473</v>
+        <v>3.728959811549006</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.007337257222377077</v>
+        <v>0.9590829769970226</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.728959811549006</v>
+        <v>1.249575564631413</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9590829769970226</v>
+        <v>152</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.249575564631413</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>152</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.8508172960377087</v>
       </c>
     </row>
@@ -7348,72 +7270,66 @@
         <v>2.220531901995947e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.9387250503090863</v>
+        <v>8.884748047570295e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.03876286319609124</v>
+        <v>5.682471568445745e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>8.884748047570295e-07</v>
+        <v>-0.01365264099111705</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>5.682471568445745e-06</v>
+        <v>0.1993397233259225</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.01365264099111705</v>
+        <v>0.03991583155693465</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1993397233259225</v>
+        <v>1.911892174688627</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.03991583155693465</v>
+        <v>2.683886830351273</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.937121089460493</v>
+        <v>4.695986400184576</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.683886830351273</v>
+        <v>6.15733305619824e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.695986400184576</v>
+        <v>743722244.9913677</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>6.15733305619824e-16</v>
+        <v>1.617838996126737e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>743722244.9913677</v>
+        <v>340.5761163237614</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.617838996126737e-07</v>
+        <v>0.0001071966716164993</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>340.5761163237614</v>
+        <v>8.913654227940958</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001071966716164993</v>
+        <v>1.327980849075674</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.913654227940958</v>
+        <v>0.008517121986909605</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.327980849075674</v>
+        <v>3.594460429548917</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.008517121986909605</v>
+        <v>0.9585844534863519</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.594460429548917</v>
+        <v>1.282960515321873</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9585844534863519</v>
+        <v>117</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.282960515321873</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.7885598649065351</v>
       </c>
     </row>
@@ -7428,72 +7344,66 @@
         <v>2.259798296797889e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.8799948734651838</v>
+        <v>9.055303003051015e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.01533709064319622</v>
+        <v>5.678787908895558e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>9.055303003051015e-07</v>
+        <v>-0.01868253121134413</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>5.678787908895558e-06</v>
+        <v>0.1931188224768225</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.01868253121134413</v>
+        <v>0.03764208342866766</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1931188224768225</v>
+        <v>1.913485593294268</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.03764208342866766</v>
+        <v>2.681334963041214</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.94220988991159</v>
+        <v>4.643570720012797</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.681334963041214</v>
+        <v>6.857481487926739e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.643570720012797</v>
+        <v>690477250.5653681</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>6.857481487926739e-16</v>
+        <v>1.739803226558004e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>690477250.5653681</v>
+        <v>326.9364875263082</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.739803226558004e-07</v>
+        <v>0.0001078653242100974</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>326.9364875263082</v>
+        <v>9.226260136448422</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001078653242100974</v>
+        <v>1.217474058578156</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.226260136448422</v>
+        <v>0.009181914494130994</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.217474058578156</v>
+        <v>3.409443708268064</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.009181914494130994</v>
+        <v>0.9577866778042604</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.409443708268064</v>
+        <v>1.269606306967234</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9577866778042604</v>
+        <v>97</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.269606306967234</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>97</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.7506296484676442</v>
       </c>
     </row>
@@ -7508,72 +7418,66 @@
         <v>2.304413419788726e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.824669771145453</v>
+        <v>9.182217476183393e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.0750768531116579</v>
+        <v>5.674261098956291e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>9.182217476183393e-07</v>
+        <v>-0.02049002249615995</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>5.674261098956291e-06</v>
+        <v>0.1889639470307518</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.02049002249615995</v>
+        <v>0.0361271425086398</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1889639470307518</v>
+        <v>1.908900240350192</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.0361271425086398</v>
+        <v>2.453413032895999</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.935901035816078</v>
+        <v>4.659048147711061</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.453413032895999</v>
+        <v>8.100905378808329e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.659048147711061</v>
+        <v>553578764.0646641</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>8.100905378808329e-16</v>
+        <v>2.163058902072003e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>553578764.0646641</v>
+        <v>248.2517981825289</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.163058902072003e-07</v>
+        <v>0.0001056966889466991</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>248.2517981825289</v>
+        <v>8.732271509482308</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001056966889466991</v>
+        <v>1.216454464487132</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.732271509482308</v>
+        <v>0.008059643719799534</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.216454464487132</v>
+        <v>3.458212174140995</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.008059643719799534</v>
+        <v>0.957008652493239</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.458212174140995</v>
+        <v>1.257893177897089</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.957008652493239</v>
+        <v>78</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.257893177897089</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.7671021476669234</v>
       </c>
     </row>
@@ -7588,72 +7492,66 @@
         <v>2.350020293608763e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.7748600267544935</v>
+        <v>9.248045754651297e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.1350936749855634</v>
+        <v>5.66950838476217e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>9.248045754651297e-07</v>
+        <v>-0.0201085046363719</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>5.66950838476217e-06</v>
+        <v>0.1852871445583424</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.0201085046363719</v>
+        <v>0.03473554678917058</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1852871445583424</v>
+        <v>1.906914124227967</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03473554678917058</v>
+        <v>2.28533500195012</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.933153913753051</v>
+        <v>4.781008611752294</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.28533500195012</v>
+        <v>1.031997480202391e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.781008611752294</v>
+        <v>435653083.5764882</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.031997480202391e-15</v>
+        <v>2.747546154204067e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>435653083.5764882</v>
+        <v>195.8665264835704</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.747546154204067e-07</v>
+        <v>0.0001080751096032977</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>195.8665264835704</v>
+        <v>9.316067863812098</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001080751096032977</v>
+        <v>1.428977824648913</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.316067863812098</v>
+        <v>0.00937974370426751</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.428977824648913</v>
+        <v>3.585061111994017</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.00937974370426751</v>
+        <v>0.9579252421190564</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.585061111994017</v>
+        <v>1.278673666619366</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9579252421190564</v>
+        <v>78</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.278673666619366</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.9179085496074804</v>
       </c>
     </row>
@@ -7668,72 +7566,66 @@
         <v>2.393956065087463e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.7319091970214749</v>
+        <v>9.254030450532491e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.1941690868654691</v>
+        <v>5.664890479634054e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>9.254030450532491e-07</v>
+        <v>-0.01875043122047835</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>5.664890479634054e-06</v>
+        <v>0.1818362839934011</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.01875043122047835</v>
+        <v>0.0334158052378415</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1818362839934011</v>
+        <v>1.898247034475646</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0334158052378415</v>
+        <v>2.283033040220069</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.923630810241636</v>
+        <v>4.610740729180621</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.283033040220069</v>
+        <v>1.109625134260261e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.610740729180621</v>
+        <v>403573768.7795704</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.109625134260261e-15</v>
+        <v>2.965106194310264e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>403573768.7795704</v>
+        <v>180.7266283472513</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.965106194310264e-07</v>
+        <v>0.0001203852055818428</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>180.7266283472513</v>
+        <v>11.62002428055294</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001203852055818428</v>
+        <v>1.340638661565538</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.62002428055294</v>
+        <v>0.0162550080836058</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.340638661565538</v>
+        <v>3.663373560266703</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0162550080836058</v>
+        <v>0.9583878006278906</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.663373560266703</v>
+        <v>1.292023212665751</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9583878006278906</v>
+        <v>78</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.292023212665751</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>1.328864241250927</v>
       </c>
     </row>
@@ -7748,72 +7640,66 @@
         <v>2.435053796921608e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.6961589730552433</v>
+        <v>9.254030450532491e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.2512041135620837</v>
+        <v>5.660532720690368e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>9.254030450532491e-07</v>
+        <v>-0.01744256705283493</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>5.660532720690368e-06</v>
+        <v>0.1787176841848046</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.01744256705283493</v>
+        <v>0.03224410838651953</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1787176841848046</v>
+        <v>1.884664066317968</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.03224410838651953</v>
+        <v>2.294233713705392</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.900823211314165</v>
+        <v>4.501574165002475</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.294233713705392</v>
+        <v>1.362730322814498e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.501574165002475</v>
+        <v>329493596.133191</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.362730322814498e-15</v>
+        <v>3.621200221719466e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>329493596.133191</v>
+        <v>147.9462209624799</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.621200221719466e-07</v>
+        <v>0.0001799143206895097</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>147.9462209624799</v>
+        <v>10.90386423506971</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001799143206895097</v>
+        <v>1.586952089535531</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>10.90386423506971</v>
+        <v>0.02139077916841814</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.586952089535531</v>
+        <v>3.502406177313524</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.02139077916841814</v>
+        <v>0.9576524394226882</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.502406177313524</v>
+        <v>1.38969334744493</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9576524394226882</v>
+        <v>83</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.38969334744493</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>1.303578938072192</v>
       </c>
     </row>
@@ -7828,72 +7714,66 @@
         <v>2.474376389913066e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.6647555479598826</v>
+        <v>9.292474840727087e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.3057547036192139</v>
+        <v>5.656360522696153e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>9.292474840727087e-07</v>
+        <v>-0.01657663144688332</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>5.656360522696153e-06</v>
+        <v>0.1758035831188168</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.01657663144688332</v>
+        <v>0.03118137699721513</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1758035831188168</v>
+        <v>1.884192909320273</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.03118137699721513</v>
+        <v>2.315551713740648</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.898873630072512</v>
+        <v>4.218984562185124</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.315551713740648</v>
+        <v>1.565220261990801e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.218984562185124</v>
+        <v>287792901.5401378</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.565220261990801e-15</v>
+        <v>4.151120921267036e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>287792901.5401378</v>
+        <v>129.6389834320777</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>4.151120921267036e-07</v>
+        <v>0.0001882439214242263</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>129.6389834320777</v>
+        <v>9.282270210172658</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001882439214242263</v>
+        <v>1.721886885489241</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.282270210172658</v>
+        <v>0.01621919796956687</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.721886885489241</v>
+        <v>3.220727487137882</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01621919796956687</v>
+        <v>0.9574016482750394</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.220727487137882</v>
+        <v>1.399657863400815</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9574016482750394</v>
+        <v>83</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.399657863400815</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.8283210611506491</v>
       </c>
     </row>
@@ -7908,72 +7788,66 @@
         <v>2.512848567120023e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.6349394449981777</v>
+        <v>9.368205143330946e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.3575280387708442</v>
+        <v>5.652343431660663e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>9.368205143330946e-07</v>
+        <v>-0.01562487951833263</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5.652343431660663e-06</v>
+        <v>0.1729699929352569</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.01562487951833263</v>
+        <v>0.03016237190062972</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1729699929352569</v>
+        <v>1.884567906458197</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.03016237190062972</v>
+        <v>2.091155465627838</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.899908535166872</v>
+        <v>4.323598334757375</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.091155465627838</v>
+        <v>1.490392484663052e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.323598334757375</v>
+        <v>297278945.6772082</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.490392484663052e-15</v>
+        <v>4.021096039960385e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>297278945.6772082</v>
+        <v>131.7130953414305</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.021096039960385e-07</v>
+        <v>0.0001470401025268759</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>131.7130953414305</v>
+        <v>9.249922662071992</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001470401025268759</v>
+        <v>1.262111591928372</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.249922662071992</v>
+        <v>0.01258090839546331</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.262111591928372</v>
+        <v>3.096571611334694</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01258090839546331</v>
+        <v>0.957381479899554</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.096571611334694</v>
+        <v>1.408678224604803</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.957381479899554</v>
+        <v>85</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.408678224604803</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.5720502542976658</v>
       </c>
     </row>
@@ -7988,72 +7862,66 @@
         <v>2.55019437272466e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.6064405744646749</v>
+        <v>9.418596064688298e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.4060963687005801</v>
+        <v>5.648521525481551e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>9.418596064688298e-07</v>
+        <v>-0.01457134092300225</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>5.648521525481551e-06</v>
+        <v>0.1702949442847517</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.01457134092300225</v>
+        <v>0.02921246653901611</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1702949442847517</v>
+        <v>1.887780668380901</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.02921246653901611</v>
+        <v>2.240131729318338</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.902375996800097</v>
+        <v>4.441883549438836</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.240131729318338</v>
+        <v>1.412072503646795e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.441883549438836</v>
+        <v>311702765.4091125</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.412072503646795e-15</v>
+        <v>3.841393227483468e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>311702765.4091125</v>
+        <v>137.1950072705577</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.841393227483468e-07</v>
+        <v>0.0001369100136326541</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>137.1950072705577</v>
+        <v>9.366977752835657</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001369100136326541</v>
+        <v>1.167813533054931</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.366977752835657</v>
+        <v>0.01201252186606298</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.167813533054931</v>
+        <v>2.916077018077142</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01201252186606298</v>
+        <v>0.9574383131672396</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.916077018077142</v>
+        <v>1.419896374843832</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9574383131672396</v>
+        <v>85</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.419896374843832</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.4613350101629557</v>
       </c>
     </row>
@@ -8068,72 +7936,66 @@
         <v>2.585621570439749e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.5807693070173029</v>
+        <v>9.423965245304986e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.4515319253155647</v>
+        <v>5.644919764709103e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>9.423965245304986e-07</v>
+        <v>-0.01346500963884478</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>5.644919764709103e-06</v>
+        <v>0.1679100318669006</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.01346500963884478</v>
+        <v>0.0283749757955559</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1679100318669006</v>
+        <v>1.883544138849856</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.0283749757955559</v>
+        <v>2.354045914242669</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.901226648853561</v>
+        <v>4.30974707889589</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.354045914242669</v>
+        <v>1.625910631059516e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.30974707889589</v>
+        <v>271886678.7502891</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.625910631059516e-15</v>
+        <v>4.400988738967921e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>271886678.7502891</v>
+        <v>120.1911608855743</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.400988738967921e-07</v>
+        <v>0.0001339310219763933</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>120.1911608855743</v>
+        <v>8.695212120594277</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001339310219763933</v>
+        <v>1.195039661386282</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.695212120594277</v>
+        <v>0.01012608445047452</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.195039661386282</v>
+        <v>2.961429684693909</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01012608445047452</v>
+        <v>0.9584080300736589</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.961429684693909</v>
+        <v>1.398510760157513</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9584080300736589</v>
+        <v>60</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.398510760157513</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.4052767614820391</v>
       </c>
     </row>
@@ -8148,72 +8010,66 @@
         <v>2.618046625014177e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.5598727510397171</v>
+        <v>9.423965245304986e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.4939395493479424</v>
+        <v>5.641574030890914e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>9.423965245304986e-07</v>
+        <v>-0.01224839407173345</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5.641574030890914e-06</v>
+        <v>0.1659110965783097</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.01224839407173345</v>
+        <v>0.02767640171606963</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1659110965783097</v>
+        <v>1.879699254252343</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02767640171606963</v>
+        <v>2.169708830190197</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.887808153595467</v>
+        <v>4.198132952736654</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.169708830190197</v>
+        <v>1.713514808229353e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.198132952736654</v>
+        <v>256668322.3942019</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.713514808229353e-15</v>
+        <v>4.657850758387214e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>256668322.3942019</v>
+        <v>112.8840041451694</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>4.657850758387214e-07</v>
+        <v>0.0001395455611052239</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>112.8840041451694</v>
+        <v>7.981737962765674</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001395455611052239</v>
+        <v>1.319799008544118</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>7.981737962765674</v>
+        <v>0.008890188269733989</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.319799008544118</v>
+        <v>3.051938693213158</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.008890188269733989</v>
+        <v>0.9591826161727592</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.051938693213158</v>
+        <v>1.41920027452975</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9591826161727592</v>
+        <v>45</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.41920027452975</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.367085712994256</v>
       </c>
     </row>
@@ -8228,72 +8084,66 @@
         <v>2.647195076079167e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.5443447297901366</v>
+        <v>9.423965245304986e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.5334945097150974</v>
+        <v>5.63846411660401e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>9.423965245304986e-07</v>
+        <v>-0.01155976277832895</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>5.63846411660401e-06</v>
+        <v>0.1641673168845963</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.01155976277832895</v>
+        <v>0.02708452489438963</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1641673168845963</v>
+        <v>1.860537818188493</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02708452489438963</v>
+        <v>2.173436918628877</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.850619796724091</v>
+        <v>4.647633567593797</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.173436918628877</v>
+        <v>2.281528257476172e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.647633567593797</v>
+        <v>194371450.2502134</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.281528257476172e-15</v>
+        <v>6.136813106243218e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>194371450.2502134</v>
+        <v>86.1967322988306</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>6.136813106243218e-07</v>
+        <v>0.0001477711035255767</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>86.1967322988306</v>
+        <v>8.364940551163436</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001477711035255767</v>
+        <v>1.369950404109742</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.364940551163436</v>
+        <v>0.01033987370597407</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.369950404109742</v>
+        <v>2.998467650737836</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01033987370597407</v>
+        <v>0.9594010287785197</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.998467650737836</v>
+        <v>1.520110363437569</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9594010287785197</v>
+        <v>46</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.520110363437569</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.3883910418091502</v>
       </c>
     </row>
@@ -8308,72 +8158,66 @@
         <v>2.675444058926749e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.5323121557630381</v>
+        <v>9.423965245304986e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.5722254119992316</v>
+        <v>5.635331930840261e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>9.423965245304986e-07</v>
+        <v>-0.01215904284334101</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>5.635331930840261e-06</v>
+        <v>0.1623326189119193</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.01215904284334101</v>
+        <v>0.02649956808454683</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1623326189119193</v>
+        <v>1.864422812713745</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.02649956808454683</v>
+        <v>2.109696483192341</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.850515455292331</v>
+        <v>4.031149292506233</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.109696483192341</v>
+        <v>3.252821276427774e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.031149292506233</v>
+        <v>138472019.5863185</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.252821276427774e-15</v>
+        <v>8.596536042504618e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>138472019.5863185</v>
+        <v>62.37122224247183</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>8.596536042504618e-07</v>
+        <v>0.0001563892809577946</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>62.37122224247183</v>
+        <v>9.37289269933278</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001563892809577946</v>
+        <v>1.342898692672682</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.37289269933278</v>
+        <v>0.01373897310548453</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.342898692672682</v>
+        <v>2.856057989718356</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01373897310548453</v>
+        <v>0.958891952978119</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.856057989718356</v>
+        <v>1.504780896110236</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.958891952978119</v>
+        <v>44</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.504780896110236</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.3512733134452367</v>
       </c>
     </row>
@@ -8388,72 +8232,66 @@
         <v>2.70540489312119e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.5219449053870978</v>
+        <v>9.423965245304986e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.6121129235153897</v>
+        <v>5.631899093260293e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>9.423965245304986e-07</v>
+        <v>-0.01341011850094346</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>5.631899093260293e-06</v>
+        <v>0.1604058047167896</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.01341011850094346</v>
+        <v>0.02590959106211139</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1604058047167896</v>
+        <v>1.860261206642012</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.02590959106211139</v>
+        <v>2.054452093708357</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.840821978898167</v>
+        <v>3.863923080434561</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.054452093708357</v>
+        <v>3.540470843911996e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.863923080434561</v>
+        <v>125520849.7439302</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.540470843911996e-15</v>
+        <v>9.523977422332788e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>125520849.7439302</v>
+        <v>55.78183074394189</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>9.523977422332788e-07</v>
+        <v>0.0001503227331065953</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>55.78183074394189</v>
+        <v>9.147235493308822</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001503227331065953</v>
+        <v>1.312760844467866</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.147235493308822</v>
+        <v>0.01257779127327037</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.312760844467866</v>
+        <v>2.852012423722613</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01257779127327037</v>
+        <v>0.9592593290035977</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.852012423722613</v>
+        <v>1.55181982809493</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9592593290035977</v>
+        <v>11</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.55181982809493</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.27104020547691</v>
       </c>
     </row>
@@ -8468,72 +8306,66 @@
         <v>2.738202777172258e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.5124552511277379</v>
+        <v>9.531116377455033e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.6533191394183735</v>
+        <v>5.628041854973751e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>9.531116377455033e-07</v>
+        <v>-0.01497928836428733</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>5.628041854973751e-06</v>
+        <v>0.1583670782646673</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.01497928836428733</v>
+        <v>0.02530411777516489</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1583670782646673</v>
+        <v>1.860193588875948</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02530411777516489</v>
+        <v>2.03153745469805</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.839977032503398</v>
+        <v>3.799057133192953</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.03153745469805</v>
+        <v>3.662404568856618e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.799057133192953</v>
+        <v>121511673.9652597</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3.662404568856618e-15</v>
+        <v>9.830441633550344e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>121511673.9652597</v>
+        <v>54.07572175816152</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>9.830441633550344e-07</v>
+        <v>0.0001425369200764631</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>54.07572175816152</v>
+        <v>8.731902165016896</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001425369200764631</v>
+        <v>1.281162400747915</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.731902165016896</v>
+        <v>0.01086788645967961</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.281162400747915</v>
+        <v>2.882064508261446</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01086788645967961</v>
+        <v>0.9578886631967641</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.882064508261446</v>
+        <v>1.548970269504718</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9578886631967641</v>
+        <v>11</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.548970269504718</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.2378053259960321</v>
       </c>
     </row>
@@ -8548,72 +8380,66 @@
         <v>2.774474379424587e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.5036860771082606</v>
+        <v>9.711228648880444e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.6953329348080435</v>
+        <v>5.623666094330316e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>9.711228648880444e-07</v>
+        <v>-0.01682528498105308</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>5.623666094330316e-06</v>
+        <v>0.1561371754667468</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.01682528498105308</v>
+        <v>0.02466132715448547</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1561371754667468</v>
+        <v>1.862687424186025</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02466132715448547</v>
+        <v>1.950827221504278</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.840751743856114</v>
+        <v>3.812106525401075</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.950827221504278</v>
+        <v>3.637373603117625e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.812106525401075</v>
+        <v>122217624.3373398</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>3.637373603117625e-15</v>
+        <v>9.766559207420098e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>122217624.3373398</v>
+        <v>54.33198674498642</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>9.766559207420098e-07</v>
+        <v>0.0001400070483468877</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>54.33198674498642</v>
+        <v>8.782528911508013</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001400070483468877</v>
+        <v>1.274568343728555</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.782528911508013</v>
+        <v>0.01079913763023645</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.274568343728555</v>
+        <v>2.857841966090976</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01079913763023645</v>
+        <v>0.9574957344864063</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.857841966090976</v>
+        <v>1.535656074615755</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9574957344864063</v>
+        <v>11</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.535656074615755</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.2385751996493367</v>
       </c>
     </row>
@@ -8628,72 +8454,66 @@
         <v>2.814632630509215e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.4963569490720985</v>
+        <v>9.912489692736357e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.7371315358287664</v>
+        <v>5.618641021778777e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>9.912489692736357e-07</v>
+        <v>-0.01926841833108751</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>5.618641021778777e-06</v>
+        <v>0.1534295364321394</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.01926841833108751</v>
+        <v>0.02391069942539787</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1534295364321394</v>
+        <v>1.862285921081898</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02391069942539787</v>
+        <v>1.971550462292914</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.839727713691129</v>
+        <v>3.860421760409388</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.971550462292914</v>
+        <v>3.546896019104418e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.860421760409388</v>
+        <v>126662008.1691255</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3.546896019104418e-15</v>
+        <v>9.435683298628345e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>126662008.1691255</v>
+        <v>56.9037903267648</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>9.435683298628345e-07</v>
+        <v>0.000140147902801863</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>56.9037903267648</v>
+        <v>8.878676458431187</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.000140147902801863</v>
+        <v>1.301740704207052</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.878676458431187</v>
+        <v>0.01104798470183055</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.301740704207052</v>
+        <v>2.86036900463318</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01104798470183055</v>
+        <v>0.9591446024722234</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.86036900463318</v>
+        <v>1.543157908027957</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9591446024722234</v>
+        <v>11</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.543157908027957</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.2578761182186233</v>
       </c>
     </row>
@@ -8708,72 +8528,66 @@
         <v>2.858880591187742e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.4926913416456594</v>
+        <v>1.013164113353373e-06</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.7763145412915238</v>
+        <v>5.612712093507462e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.013164113353373e-06</v>
+        <v>-0.02269971928319253</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>5.612712093507462e-06</v>
+        <v>0.1496414232420394</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.02269971928319253</v>
+        <v>0.02290527254611922</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1496414232420394</v>
+        <v>1.857806894156505</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02290527254611922</v>
+        <v>1.895309870391188</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.836883426729402</v>
+        <v>3.988191163703875</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.895309870391188</v>
+        <v>3.32327310594984e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.988191163703875</v>
+        <v>133307304.9772203</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>3.32327310594984e-15</v>
+        <v>8.966272644304973e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>133307304.9772203</v>
+        <v>59.05734653431382</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>8.966272644304973e-07</v>
+        <v>0.000142618147176347</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>59.05734653431382</v>
+        <v>8.475170439363783</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.000142618147176347</v>
+        <v>1.363471221634315</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>8.475170439363783</v>
+        <v>0.01024404957772536</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.363471221634315</v>
+        <v>2.980743122308109</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01024404957772536</v>
+        <v>0.9584718044167054</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.980743122308109</v>
+        <v>1.54983649988917</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9584718044167054</v>
+        <v>11</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.54983649988917</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2811450371086208</v>
       </c>
     </row>
@@ -8788,72 +8602,66 @@
         <v>2.906156244873998e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.4966986933962215</v>
+        <v>1.03597879432482e-06</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.8064186958244011</v>
+        <v>5.605517585667936e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.03597879432482e-06</v>
+        <v>-0.02743582739076241</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>5.605517585667936e-06</v>
+        <v>0.1436651194824324</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.02743582739076241</v>
+        <v>0.02138692312563193</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1436651194824324</v>
+        <v>1.860196730522951</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02138692312563193</v>
+        <v>1.848454281145433</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.836655382669801</v>
+        <v>4.286572242346164</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.848454281145433</v>
+        <v>2.876720525817536e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.286572242346164</v>
+        <v>153673327.025612</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.876720525817536e-15</v>
+        <v>7.779257684372999e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>153673327.025612</v>
+        <v>67.93516895018678</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>7.779257684372999e-07</v>
+        <v>0.0001540218631504398</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>67.93516895018678</v>
+        <v>8.537904826781823</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001540218631504398</v>
+        <v>1.39060105716065</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.537904826781823</v>
+        <v>0.01122754983225593</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.39060105716065</v>
+        <v>2.966509770346372</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01122754983225593</v>
+        <v>0.9587268315895355</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.966509770346372</v>
+        <v>1.527434856902801</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9587268315895355</v>
+        <v>36</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.527434856902801</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.287879747221422</v>
       </c>
     </row>
@@ -8868,72 +8676,66 @@
         <v>2.95235903238859e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.5138810627685971</v>
+        <v>1.058868235568416e-06</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.8126027662288116</v>
+        <v>5.596562842333852e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.058868235568416e-06</v>
+        <v>-0.03399599794795185</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>5.596562842333852e-06</v>
+        <v>0.1330312357510616</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.03399599794795185</v>
+        <v>0.01884149897353532</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1330312357510616</v>
+        <v>1.868686184121081</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01884149897353532</v>
+        <v>2.055120385915628</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.853410124890752</v>
+        <v>4.539116264750612</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.055120385915628</v>
+        <v>2.565519695399181e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.539116264750612</v>
+        <v>173374564.1748695</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2.565519695399181e-15</v>
+        <v>6.901164061298971e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>173374564.1748695</v>
+        <v>77.11628821337335</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>6.901164061298971e-07</v>
+        <v>0.0001482953374809903</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>77.11628821337335</v>
+        <v>9.095149926706597</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001482953374809903</v>
+        <v>1.249775464866156</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.095149926706597</v>
+        <v>0.01226725015792679</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.249775464866156</v>
+        <v>2.909195024454614</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01226725015792679</v>
+        <v>0.9595963890301337</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.909195024454614</v>
+        <v>1.518017386491127</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9595963890301337</v>
+        <v>74</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.518017386491127</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2922521962378094</v>
       </c>
     </row>
@@ -8948,72 +8750,66 @@
         <v>2.987015792766077e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.5477749633747958</v>
+        <v>1.081769802510109e-06</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.7686138607718402</v>
+        <v>5.5851741089254e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.081769802510109e-06</v>
+        <v>-0.04298820301257156</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>5.5851741089254e-06</v>
+        <v>0.1126665901931521</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.04298820301257156</v>
+        <v>0.01452197210095538</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1126665901931521</v>
+        <v>1.881768903837525</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.01452197210095538</v>
+        <v>1.989057557786175</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.871926523625303</v>
+        <v>4.629096914517779</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.989057557786175</v>
+        <v>2.466751610144467e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.629096914517779</v>
+        <v>180473803.6989622</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>2.466751610144467e-15</v>
+        <v>6.638051992825725e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>180473803.6989622</v>
+        <v>80.34405810304503</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>6.638051992825725e-07</v>
+        <v>0.0001401855884530099</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>80.34405810304503</v>
+        <v>9.352718406437585</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001401855884530099</v>
+        <v>1.202586201015516</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>9.352718406437585</v>
+        <v>0.01226250186476161</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.202586201015516</v>
+        <v>2.824394589094821</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01226250186476161</v>
+        <v>0.9603028442415804</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.824394589094821</v>
+        <v>1.501824433914037</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9603028442415804</v>
+        <v>86</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.501824433914037</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.3152721550085281</v>
       </c>
     </row>
@@ -9028,72 +8824,66 @@
         <v>2.991516558547676e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.586804282428849</v>
+        <v>1.105251487664285e-06</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.6634619122191463</v>
+        <v>5.570738159770081e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.105251487664285e-06</v>
+        <v>-0.05342569123389165</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>5.570738159770081e-06</v>
+        <v>0.08166957758984938</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.05342569123389165</v>
+        <v>0.009507267966294745</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.08166957758984938</v>
+        <v>1.880579876631507</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.009507267966294745</v>
+        <v>2.140764923466182</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.875053566598553</v>
+        <v>4.735773651395466</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>2.140764923466182</v>
+        <v>2.356872521546372e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.735773651395466</v>
+        <v>186603333.4009469</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>2.356872521546372e-15</v>
+        <v>6.412924613441787e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>186603333.4009469</v>
+        <v>82.06819621141237</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>6.412924613441787e-07</v>
+        <v>0.0001321113393784776</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>82.06819621141237</v>
+        <v>8.648532865117614</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001321113393784776</v>
+        <v>1.209900209334589</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.648532865117614</v>
+        <v>0.009881547799843345</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.209900209334589</v>
+        <v>2.979500747258961</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.009881547799843345</v>
+        <v>0.9598440723897124</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.979500747258961</v>
+        <v>1.468847965639704</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9598440723897124</v>
+        <v>109</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.468847965639704</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.3310084376466181</v>
       </c>
     </row>
@@ -9108,72 +8898,66 @@
         <v>2.952524360004168e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.5981208278433016</v>
+        <v>1.128573821558224e-06</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.5659847285536688</v>
+        <v>5.55347567664996e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.128573821558224e-06</v>
+        <v>-0.06195260172177362</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>5.55347567664996e-06</v>
+        <v>0.0582317136292976</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.06195260172177362</v>
+        <v>0.00722549185336097</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.0582317136292976</v>
+        <v>1.888093497406358</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.00722549185336097</v>
+        <v>1.99146328303708</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.884319158881948</v>
+        <v>4.747940324450266</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.99146328303708</v>
+        <v>2.344808950822957e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.747940324450266</v>
+        <v>187501220.2441065</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>2.344808950822957e-15</v>
+        <v>6.390948436175666e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>187501220.2441065</v>
+        <v>82.43576264559968</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>6.390948436175666e-07</v>
+        <v>0.0001311257157743117</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>82.43576264559968</v>
+        <v>7.719109958215367</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001311257157743117</v>
+        <v>1.409954487462235</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>7.719109958215367</v>
+        <v>0.007813081001145913</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.409954487462235</v>
+        <v>3.177398359857322</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.007813081001145913</v>
+        <v>0.9612477552624034</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.177398359857322</v>
+        <v>1.47506500604761</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9612477552624034</v>
+        <v>114</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.47506500604761</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.3759211215077425</v>
       </c>
     </row>
@@ -9188,72 +8972,66 @@
         <v>2.881943925183246e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.5642845515958539</v>
+        <v>1.151206572299295e-06</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.5566784776444611</v>
+        <v>5.534632260800186e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.151206572299295e-06</v>
+        <v>-0.06657258785030866</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>5.534632260800186e-06</v>
+        <v>0.05456683918788782</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.06657258785030866</v>
+        <v>0.007409636672764849</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.05456683918788782</v>
+        <v>1.887343741521681</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.007409636672764849</v>
+        <v>1.897480438974246</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.886952575746464</v>
+        <v>4.948254569828877</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.897480438974246</v>
+        <v>2.158807399673256e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.948254569828877</v>
+        <v>205127873.8532448</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>2.158807399673256e-15</v>
+        <v>5.836931889089328e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>205127873.8532448</v>
+        <v>90.83709882993772</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>5.836931889089328e-07</v>
+        <v>0.0001458858009267837</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>90.83709882993772</v>
+        <v>7.810112601382404</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001458858009267837</v>
+        <v>1.795414666857671</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>7.810112601382404</v>
+        <v>0.008898721492607321</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.795414666857671</v>
+        <v>3.315439060469237</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.008898721492607321</v>
+        <v>0.9607402953498597</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.315439060469237</v>
+        <v>1.474803983426545</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9607402953498597</v>
+        <v>116</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.474803983426545</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.557042025861497</v>
       </c>
     </row>
@@ -9268,72 +9046,66 @@
         <v>2.802045573801819e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.4979356172498534</v>
+        <v>1.151072945797107e-06</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.6245044494752428</v>
+        <v>5.51539598674421e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.151072945797107e-06</v>
+        <v>-0.06847081221161318</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>5.51539598674421e-06</v>
+        <v>0.05592442790599288</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.06847081221161318</v>
+        <v>0.007814895593131872</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.05592442790599288</v>
+        <v>1.890505523926952</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.007814895593131872</v>
+        <v>1.845795062766749</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.886895240258137</v>
+        <v>5.349088183867767</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.845795062766749</v>
+        <v>1.684171118713978e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>5.349088183867767</v>
+        <v>259035346.9948943</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.684171118713978e-15</v>
+        <v>4.634960710047381e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>259035346.9948943</v>
+        <v>113.0067216596227</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>4.634960710047381e-07</v>
+        <v>0.000150341404413612</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>113.0067216596227</v>
+        <v>10.93724090737783</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.000150341404413612</v>
+        <v>1.224843219097008</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>10.93724090737783</v>
+        <v>0.017984325701554</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.224843219097008</v>
+        <v>3.445906747062212</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.017984325701554</v>
+        <v>0.9608647670624638</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.445906747062212</v>
+        <v>1.44902518809101</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9608647670624638</v>
+        <v>116</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.44902518809101</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>1.30107694210551</v>
       </c>
     </row>
@@ -9348,72 +9120,66 @@
         <v>2.726985402585206e-07</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.4167849001303293</v>
+        <v>1.126191179334734e-06</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-0.725042913552262</v>
+        <v>5.496398250943031e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1.126191179334734e-06</v>
+        <v>-0.06883769913077961</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>5.496398250943031e-06</v>
+        <v>0.05610649242616857</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.06883769913077961</v>
+        <v>0.007884638649291318</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.05610649242616857</v>
+        <v>1.896606979337697</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.007884638649291318</v>
+        <v>2.051708833957354</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.905556992435855</v>
+        <v>4.473913176132603</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>2.051708833957354</v>
+        <v>1.323357980573054e-15</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.473913176132603</v>
+        <v>327239420.3858384</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>1.323357980573054e-15</v>
+        <v>3.671866302805522e-07</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>327239420.3858384</v>
+        <v>141.7126339887981</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>3.671866302805522e-07</v>
+        <v>0.0001844181400246709</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>141.7126339887981</v>
+        <v>14.30890584530203</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001844181400246709</v>
+        <v>1.024820277625653</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>14.30890584530203</v>
+        <v>0.03775865270418225</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.024820277625653</v>
+        <v>3.480836694580761</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.03775865270418225</v>
+        <v>0.9601184411924869</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>3.480836694580761</v>
+        <v>1.402558252002493</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9601184411924869</v>
+        <v>116</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.402558252002493</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>2.391909259687833</v>
       </c>
     </row>
@@ -9428,72 +9194,66 @@
         <v>2.662728520333391e-07</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.3333923530245279</v>
+        <v>1.092010684875359e-06</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-0.8263742139365484</v>
+        <v>5.477906332124473e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1.092010684875359e-06</v>
+        <v>-0.06836005176053313</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>5.477906332124473e-06</v>
+        <v>0.05505182142986972</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.06836005176053313</v>
+        <v>0.007701498289990342</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.05505182142986972</v>
+        <v>1.915792898365099</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.007701498289990342</v>
+        <v>2.000749190695578</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.940596736968098</v>
+        <v>4.9359435891375</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>2.000749190695578</v>
+        <v>1.093005244617683e-15</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>4.9359435891375</v>
+        <v>393381735.2657173</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>1.093005244617683e-15</v>
+        <v>3.066209226228209e-07</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>393381735.2657173</v>
+        <v>169.1416758775853</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>3.066209226228209e-07</v>
+        <v>0.0001900474032437886</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>169.1416758775853</v>
+        <v>12.33296794486712</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001900474032437886</v>
+        <v>1.282398281742116</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>12.33296794486712</v>
+        <v>0.02890660881538061</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.282398281742116</v>
+        <v>3.826600393720936</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.02890660881538061</v>
+        <v>0.9613910661699021</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.826600393720936</v>
+        <v>1.178327415807984</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9613910661699021</v>
+        <v>115</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.178327415807984</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>115</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>3.080377452883376</v>
       </c>
     </row>
@@ -9508,72 +9268,66 @@
         <v>2.610775060829687e-07</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.2553807101059896</v>
+        <v>1.055559978995866e-06</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.912846467682451</v>
+        <v>5.460009967110711e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1.055559978995866e-06</v>
+        <v>-0.067393095333488</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>5.460009967110711e-06</v>
+        <v>0.05337556161783581</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.067393095333488</v>
+        <v>0.007388518312262693</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.05337556161783581</v>
+        <v>1.916976385429648</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.007388518312262693</v>
+        <v>2.28614359698202</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.946737188773333</v>
+        <v>5.993243638034578</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>2.28614359698202</v>
+        <v>4.598739798381711e-16</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>5.993243638034578</v>
+        <v>939701373.4996336</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>4.598739798381711e-16</v>
+        <v>1.279119983602097e-07</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>939701373.4996336</v>
+        <v>406.0865081479994</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>1.279119983602097e-07</v>
+        <v>0.000141642732141898</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>406.0865081479994</v>
+        <v>12.42350805612354</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.000141642732141898</v>
+        <v>1.080253220008576</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>12.42350805612354</v>
+        <v>0.02186164245333528</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.080253220008576</v>
+        <v>4.209910406634075</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.02186164245333528</v>
+        <v>0.9618589274038108</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>4.209910406634075</v>
+        <v>1.016198744139842</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9618589274038108</v>
+        <v>119</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.016198744139842</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>4.086362587970997</v>
       </c>
     </row>
@@ -9588,72 +9342,66 @@
         <v>2.570650176261877e-07</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.1869572506698736</v>
+        <v>1.020030017362065e-06</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.9791993786085493</v>
+        <v>5.442715247017694e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1.020030017362065e-06</v>
+        <v>-0.06614038433414918</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>5.442715247017694e-06</v>
+        <v>0.05156429717731439</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.06614038433414918</v>
+        <v>0.007031449793140355</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.05156429717731439</v>
+        <v>1.915284304675497</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.007031449793140355</v>
+        <v>2.380963989886048</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.948403563058057</v>
+        <v>4.994158865571565</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>2.380963989886048</v>
+        <v>3.054022598260971e-16</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.994158865571565</v>
+        <v>1389926633.927657</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>3.054022598260971e-16</v>
+        <v>8.651194933257481e-08</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>1389926633.927657</v>
+        <v>590.0054187171332</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>8.651194933257481e-08</v>
+        <v>0.000106454359224172</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>590.0054187171332</v>
+        <v>12.06658351403687</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.000106454359224172</v>
+        <v>1.05910645229589</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>12.06658351403687</v>
+        <v>0.01550001420696146</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.05910645229589</v>
+        <v>4.73695587082188</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.01550001420696146</v>
+        <v>0.9612678044199324</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>4.73695587082188</v>
+        <v>0.9284287881510433</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9612678044199324</v>
+        <v>119</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>0.9284287881510433</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>4.989868451293209</v>
       </c>
     </row>
@@ -9668,72 +9416,66 @@
         <v>2.540813610111494e-07</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.1305116387552416</v>
+        <v>9.847765567925835e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-1.026303632880608</v>
+        <v>5.426006588709033e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>9.847765567925835e-07</v>
+        <v>-0.06460350154604254</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>5.426006588709033e-06</v>
+        <v>0.04978755362461164</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.06460350154604254</v>
+        <v>0.006650628396460899</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.04978755362461164</v>
+        <v>1.92483126810255</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.006650628396460899</v>
+        <v>2.368571523586747</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.955506638609666</v>
+        <v>6.122242302469736</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>2.368571523586747</v>
+        <v>2.658307994203404e-16</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>6.122242302469736</v>
+        <v>1630149185.21469</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>2.658307994203404e-16</v>
+        <v>7.376641444057519e-08</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>1630149185.21469</v>
+        <v>706.4151420574112</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>7.376641444057519e-08</v>
+        <v>5.503859564860232e-05</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>706.4151420574112</v>
+        <v>11.58945667323927</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>5.503859564860232e-05</v>
+        <v>1.158930932456892</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>11.58945667323927</v>
+        <v>0.007392536823019642</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.158930932456892</v>
+        <v>5.74396838008203</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.007392536823019642</v>
+        <v>0.9627727854384767</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>5.74396838008203</v>
+        <v>0.9005963890580544</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9627727854384767</v>
+        <v>119</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>0.9005963890580544</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>7.162941286795461</v>
       </c>
     </row>
@@ -9748,72 +9490,66 @@
         <v>2.519568368697813e-07</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.08855944255823206</v>
+        <v>9.469883168245544e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-1.05635319596885</v>
+        <v>5.409904842431778e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>9.469883168245544e-07</v>
+        <v>-0.06264715613050835</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>5.409904842431778e-06</v>
+        <v>0.04797687748793129</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.06264715613050835</v>
+        <v>0.006224866207617257</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.04797687748793129</v>
+        <v>1.918455889308414</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.006224866207617257</v>
+        <v>2.413964480167346</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.944971196866174</v>
+        <v>5.457671686591169</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>2.413964480167346</v>
+        <v>3.244652317461166e-16</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>5.457671686591169</v>
+        <v>1297882819.50243</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>3.244652317461166e-16</v>
+        <v>9.298852615770275e-08</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>1297882819.50243</v>
+        <v>546.5616222531121</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>9.298852615770275e-08</v>
+        <v>4.665069192137815e-05</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>546.5616222531121</v>
+        <v>11.37613696013159</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>4.665069192137815e-05</v>
+        <v>1.378608673608011</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>11.37613696013159</v>
+        <v>0.006037368904166689</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.378608673608011</v>
+        <v>6.046330528549123</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.006037368904166689</v>
+        <v>0.9625611393369033</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>6.046330528549123</v>
+        <v>0.9254502175454719</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9625611393369033</v>
+        <v>119</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>0.9254502175454719</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>7.899476067859961</v>
       </c>
     </row>
@@ -10190,7 +9926,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.485573350452951</v>
+        <v>1.443634329228993</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.358029341231264</v>
@@ -10279,7 +10015,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.482068752786891</v>
+        <v>1.439921271078783</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.256497495174329</v>
@@ -10368,7 +10104,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.490178011024919</v>
+        <v>1.451542797977782</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.416607032957612</v>
@@ -10457,7 +10193,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.490970759827458</v>
+        <v>1.45069753284377</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.296327785284301</v>
@@ -10546,7 +10282,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.496762292466505</v>
+        <v>1.456382230289058</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.303287975302456</v>
@@ -10635,7 +10371,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.472566382425967</v>
+        <v>1.439896815973653</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.27097973047883</v>
@@ -10724,7 +10460,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.468642736833705</v>
+        <v>1.43774666930348</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.249234411000118</v>
@@ -10813,7 +10549,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.477590660351766</v>
+        <v>1.443160674167729</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.333351081876749</v>
@@ -10902,7 +10638,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.499286806036236</v>
+        <v>1.461655244067932</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.249422815791141</v>
@@ -10991,7 +10727,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.504400917606932</v>
+        <v>1.467378775227194</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.559092991349803</v>
@@ -11080,7 +10816,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.491738263872256</v>
+        <v>1.453680384734207</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.585068951735038</v>
@@ -11169,7 +10905,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.494436563750627</v>
+        <v>1.45464719973653</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.512994289576588</v>
@@ -11258,7 +10994,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.516625326024791</v>
+        <v>1.471941957143329</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.424543443928973</v>
@@ -11347,7 +11083,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.49863311927085</v>
+        <v>1.45896880215637</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.403885128952731</v>
@@ -11436,7 +11172,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.502219045187843</v>
+        <v>1.463262311123946</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.455206981711235</v>
@@ -11525,7 +11261,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.507454320854658</v>
+        <v>1.474810229382045</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.507472561407378</v>
@@ -11614,7 +11350,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.509103604127495</v>
+        <v>1.482572704004302</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.398318276559669</v>
@@ -11703,7 +11439,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.532207576561611</v>
+        <v>1.505630338140961</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.619772210165386</v>
@@ -11792,7 +11528,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.531760219106269</v>
+        <v>1.508804869227685</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.662864901208888</v>
@@ -11881,7 +11617,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.530475535236004</v>
+        <v>1.50805436760563</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.678528970077486</v>
@@ -11970,7 +11706,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.54810984460603</v>
+        <v>1.516886568546031</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.365361093819734</v>
@@ -12059,7 +11795,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.544613052525951</v>
+        <v>1.51068892519693</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.58548746840257</v>
@@ -12148,7 +11884,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.539726192135985</v>
+        <v>1.50850458225252</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.628147308333481</v>
@@ -12237,7 +11973,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.541576055697826</v>
+        <v>1.51019795113756</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.44051050707052</v>
@@ -12326,7 +12062,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.554093523041327</v>
+        <v>1.524049160990962</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.59730839986107</v>
@@ -12415,7 +12151,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.559142608681156</v>
+        <v>1.529957592394284</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.426208391467136</v>
@@ -12504,7 +12240,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.567588136173514</v>
+        <v>1.543150187533448</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.608645862335139</v>
@@ -12593,7 +12329,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.571033194316643</v>
+        <v>1.548264614415963</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.352052216682026</v>
@@ -12682,7 +12418,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.588007992748083</v>
+        <v>1.563223979612879</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.663024195203105</v>
@@ -12771,7 +12507,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.577855338458824</v>
+        <v>1.551635696908901</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.414330192620461</v>
@@ -12860,7 +12596,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.586937925481249</v>
+        <v>1.556752578225004</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.332910615859965</v>
@@ -12949,7 +12685,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.592229140501844</v>
+        <v>1.559772956367378</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.856238323548914</v>
@@ -13038,7 +12774,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.589988815465233</v>
+        <v>1.551349117010639</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.631508265768537</v>
@@ -13127,7 +12863,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.610671904753695</v>
+        <v>1.566377803883006</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.985931536488179</v>
@@ -13216,7 +12952,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.618478233076603</v>
+        <v>1.577531704057333</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.070988788544049</v>
@@ -13305,7 +13041,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.627005071375417</v>
+        <v>1.599060891415043</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.062971489150609</v>
@@ -13394,7 +13130,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.629728942653776</v>
+        <v>1.602234579108226</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.866193097043294</v>
@@ -13483,7 +13219,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.620746701687147</v>
+        <v>1.594208082458047</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.408472972480633</v>
@@ -13572,7 +13308,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.598502744802028</v>
+        <v>1.576335152144531</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.577479280990675</v>
@@ -13661,7 +13397,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.610106466171819</v>
+        <v>1.588314879918296</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.407046160526819</v>
@@ -13750,7 +13486,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.605710833206705</v>
+        <v>1.585650116696792</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.458762083709811</v>
@@ -13839,7 +13575,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.611603199268902</v>
+        <v>1.588505141654543</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.545051335312369</v>
@@ -13928,7 +13664,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.620098069294465</v>
+        <v>1.595579455759194</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.513272050419086</v>
@@ -14017,7 +13753,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.616829074357621</v>
+        <v>1.597479794239061</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.412601395062398</v>
@@ -14106,7 +13842,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.628993776675528</v>
+        <v>1.612016710719402</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.566120154704569</v>
@@ -14195,7 +13931,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.622999812762058</v>
+        <v>1.603432983060488</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.747992165194918</v>
@@ -14284,7 +14020,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.596386248547047</v>
+        <v>1.580557381623569</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.718367217216853</v>
@@ -14373,7 +14109,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.60012035328603</v>
+        <v>1.582695966959546</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.428490501186748</v>
@@ -14462,7 +14198,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.601333298727834</v>
+        <v>1.585929631266745</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.667278180503951</v>
@@ -14551,7 +14287,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.597953358958962</v>
+        <v>1.582664624543945</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.647000817534329</v>
@@ -14640,7 +14376,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.598729110207037</v>
+        <v>1.575575705685012</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.61341303642133</v>
@@ -14729,7 +14465,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.607088882663578</v>
+        <v>1.582110896190773</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.647213663824036</v>
@@ -14818,7 +14554,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.622255918955203</v>
+        <v>1.591950369964564</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.449526134041689</v>
@@ -14907,7 +14643,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.611386169583858</v>
+        <v>1.588423955418146</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.748998221343693</v>
@@ -14996,7 +14732,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.6136342864497</v>
+        <v>1.588081730130637</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.610548474997437</v>
@@ -15085,7 +14821,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.597657056057241</v>
+        <v>1.578462880348925</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.649118796035174</v>
@@ -15174,7 +14910,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.592343384015961</v>
+        <v>1.575486204699552</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.86930229469807</v>
@@ -15263,7 +14999,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.596411417775017</v>
+        <v>1.582591761365046</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.877632359838857</v>
@@ -15352,7 +15088,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.606218212572342</v>
+        <v>1.592954096917969</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.776207242166486</v>
@@ -15441,7 +15177,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.620631376681328</v>
+        <v>1.599862355213246</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.884236384625824</v>
@@ -15530,7 +15266,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.606268817980647</v>
+        <v>1.588186334197749</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.799411057427621</v>
@@ -15619,7 +15355,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.632736648389208</v>
+        <v>1.60529169890069</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.596740561469331</v>
@@ -15708,7 +15444,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.623493112030524</v>
+        <v>1.596147986857548</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.757631154744128</v>
@@ -15797,7 +15533,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.619725571288063</v>
+        <v>1.595492039240435</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.844545812737354</v>
@@ -15886,7 +15622,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.62758239829727</v>
+        <v>1.598628027378845</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.940919957957523</v>
@@ -15975,7 +15711,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.611662194841707</v>
+        <v>1.580311059116359</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.950513323612939</v>
@@ -16064,7 +15800,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.601650724485041</v>
+        <v>1.575588309903134</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.930813571176555</v>
@@ -16153,7 +15889,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.611981337470954</v>
+        <v>1.585570205401682</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.624737217950834</v>
@@ -16242,7 +15978,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.630419269200141</v>
+        <v>1.596903831318228</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.936414963524397</v>
@@ -16331,7 +16067,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.600391397369904</v>
+        <v>1.577057231561833</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.570356294506506</v>
@@ -16420,7 +16156,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.591314358710923</v>
+        <v>1.568292181953612</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.902529430796644</v>
@@ -16509,7 +16245,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.58000751083381</v>
+        <v>1.54670567805136</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.853627979790077</v>
@@ -16598,7 +16334,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.553420017067299</v>
+        <v>1.524608361261268</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.929302414932547</v>
@@ -16687,7 +16423,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.530494515826979</v>
+        <v>1.502958746623662</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.797312660268829</v>
@@ -16776,7 +16512,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.523254358117556</v>
+        <v>1.500087129752636</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.836065063005223</v>
@@ -16865,7 +16601,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.537821873824107</v>
+        <v>1.512240110931121</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.700076161730688</v>
@@ -16954,7 +16690,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.53378068852973</v>
+        <v>1.51346867144279</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.762413181164701</v>
@@ -17043,7 +16779,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.535610735306015</v>
+        <v>1.51679387866675</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.85638366803043</v>
@@ -17132,7 +16868,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.522270591038998</v>
+        <v>1.505182049124896</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.796263167234321</v>
@@ -17221,7 +16957,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.508428785226294</v>
+        <v>1.495135433882216</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.720392670859514</v>
@@ -17310,7 +17046,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.526462559165398</v>
+        <v>1.510361726011334</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.748777099262715</v>
@@ -17399,7 +17135,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.528657273097722</v>
+        <v>1.5156820112742</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.85886323427617</v>
@@ -17488,7 +17224,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.525333789865975</v>
+        <v>1.513254575942164</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.862579659156343</v>
@@ -17577,7 +17313,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.521319906460312</v>
+        <v>1.511026139559029</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.639623234542698</v>
@@ -17666,7 +17402,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.552930151720069</v>
+        <v>1.540982268959521</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.647860600509243</v>
@@ -17755,7 +17491,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.546836434867773</v>
+        <v>1.529908878220754</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.596203567172636</v>
@@ -17844,7 +17580,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.567535961598829</v>
+        <v>1.557408994632349</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.005500479438311</v>
@@ -18130,7 +17866,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.519696061960414</v>
+        <v>1.475714145392591</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.127911476515979</v>
@@ -18219,7 +17955,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.524613134781334</v>
+        <v>1.482653899889423</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.070569987439957</v>
@@ -18308,7 +18044,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.491661184957349</v>
+        <v>1.450420632095814</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.124296769406328</v>
@@ -18397,7 +18133,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.48687159863015</v>
+        <v>1.446090641827155</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.097533640717837</v>
@@ -18486,7 +18222,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.483885427710701</v>
+        <v>1.443366868380268</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.060074526688516</v>
@@ -18575,7 +18311,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.472152715983173</v>
+        <v>1.430411626118559</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.07398757525102</v>
@@ -18664,7 +18400,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.451585395909027</v>
+        <v>1.414459370737882</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.083247925814852</v>
@@ -18753,7 +18489,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.459745796451487</v>
+        <v>1.421152272422948</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.107593213504913</v>
@@ -18842,7 +18578,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.486730709858083</v>
+        <v>1.441285651052973</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.029227537885224</v>
@@ -18931,7 +18667,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.46931320385426</v>
+        <v>1.427300480539097</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.132468451349032</v>
@@ -19020,7 +18756,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.451734507577001</v>
+        <v>1.409485688099859</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.155942915423291</v>
@@ -19109,7 +18845,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.455667968521331</v>
+        <v>1.415201347993756</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.204979638900542</v>
@@ -19198,7 +18934,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.492708594326824</v>
+        <v>1.443447799615426</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.107755107653693</v>
@@ -19287,7 +19023,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.468354085513451</v>
+        <v>1.423013825214246</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.127137106529317</v>
@@ -19376,7 +19112,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.474461970364275</v>
+        <v>1.433457798682173</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.180996246068864</v>
@@ -19465,7 +19201,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.472516682457761</v>
+        <v>1.428940111507179</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.16756703401684</v>
@@ -19554,7 +19290,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.474036920524599</v>
+        <v>1.425156562093876</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.116509482041642</v>
@@ -19643,7 +19379,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.510433000573169</v>
+        <v>1.454160671387919</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.112024343165257</v>
@@ -19732,7 +19468,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.48255751028874</v>
+        <v>1.432400164660272</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.140260288021311</v>
@@ -19821,7 +19557,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.474025579930295</v>
+        <v>1.425430509560198</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.174721387020483</v>
@@ -19910,7 +19646,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.49137755898862</v>
+        <v>1.437298297748477</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.067486379861573</v>
@@ -19999,7 +19735,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.50653550142363</v>
+        <v>1.448736128214262</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.163679287545449</v>
@@ -20088,7 +19824,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.504663013802206</v>
+        <v>1.445087646531834</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.200807699308137</v>
@@ -20177,7 +19913,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.513671007169746</v>
+        <v>1.452999458516584</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.484823056721416</v>
@@ -20266,7 +20002,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.544799279611137</v>
+        <v>1.485989875450887</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.394491043903471</v>
@@ -20355,7 +20091,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.562775897833847</v>
+        <v>1.504250372538312</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.504935620792754</v>
@@ -20444,7 +20180,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.561415580771269</v>
+        <v>1.506894814718408</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.610205816345076</v>
@@ -20533,7 +20269,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.562261742340026</v>
+        <v>1.512764456492141</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.420238130932031</v>
@@ -20622,7 +20358,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.591223186670558</v>
+        <v>1.534093521942488</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.583559785203614</v>
@@ -20711,7 +20447,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.554572148360164</v>
+        <v>1.505072029366473</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.524922979075562</v>
@@ -20800,7 +20536,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.559522347305849</v>
+        <v>1.515474355417872</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.592969727504918</v>
@@ -20889,7 +20625,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.561632238035581</v>
+        <v>1.523645748877318</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.573856717106167</v>
@@ -20978,7 +20714,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.559147939934743</v>
+        <v>1.523293720323306</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.461374398116469</v>
@@ -21067,7 +20803,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.594425700301494</v>
+        <v>1.552337137627984</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.565230964229683</v>
@@ -21156,7 +20892,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.60285935139374</v>
+        <v>1.561453068998565</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.722051960695555</v>
@@ -21245,7 +20981,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.620722767797422</v>
+        <v>1.588797009931922</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.774603469429253</v>
@@ -21334,7 +21070,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.619971781758479</v>
+        <v>1.593770101991594</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.768050525660356</v>
@@ -21423,7 +21159,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.607351612161779</v>
+        <v>1.580855920575691</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.302667104984166</v>
@@ -21512,7 +21248,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.584025069701952</v>
+        <v>1.561820117198791</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.311440463918485</v>
@@ -21601,7 +21337,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.583278392817748</v>
+        <v>1.5618904707325</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.319792371373998</v>
@@ -21690,7 +21426,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.581478038640177</v>
+        <v>1.560606717225861</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.22143204897945</v>
@@ -21779,7 +21515,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.58123907493347</v>
+        <v>1.558078570988045</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.338362340310697</v>
@@ -21868,7 +21604,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.580072678823752</v>
+        <v>1.56074869162129</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.387279772986797</v>
@@ -21957,7 +21693,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.562365590004341</v>
+        <v>1.551940018326366</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.2941099943995</v>
@@ -22046,7 +21782,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.567044516578335</v>
+        <v>1.558122775745406</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.309396944246827</v>
@@ -22135,7 +21871,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.563182696089637</v>
+        <v>1.550169868685374</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.367162677037618</v>
@@ -22224,7 +21960,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.536437242624173</v>
+        <v>1.528661635425869</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.387526825675002</v>
@@ -22313,7 +22049,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.533039394675475</v>
+        <v>1.523524452404937</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.393437651788873</v>
@@ -22402,7 +22138,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.539578023237892</v>
+        <v>1.530383544982902</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.362972300569652</v>
@@ -22491,7 +22227,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.551711056527209</v>
+        <v>1.54156416563565</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.263767417498618</v>
@@ -22580,7 +22316,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.543584351880027</v>
+        <v>1.531721454059967</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.331705040697599</v>
@@ -22669,7 +22405,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.538817912218253</v>
+        <v>1.522971609999277</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.364994468344619</v>
@@ -22758,7 +22494,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.549881130745144</v>
+        <v>1.528191687751662</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.182100703231081</v>
@@ -22847,7 +22583,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.525242262474178</v>
+        <v>1.516109172364502</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.426858982307776</v>
@@ -22936,7 +22672,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.526078549077797</v>
+        <v>1.516082316016901</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.383261613700481</v>
@@ -23025,7 +22761,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.522999848806223</v>
+        <v>1.511900404540672</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.424727120768161</v>
@@ -23114,7 +22850,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.52406168146049</v>
+        <v>1.5159073749043</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.436333285623587</v>
@@ -23203,7 +22939,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.529312809664624</v>
+        <v>1.517174513428281</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.27200443552687</v>
@@ -23292,7 +23028,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.556173551402887</v>
+        <v>1.538064606718509</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.3316809551602</v>
@@ -23381,7 +23117,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.583660838825817</v>
+        <v>1.559541737378916</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.518045979291367</v>
@@ -23470,7 +23206,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.56717380262719</v>
+        <v>1.545650392947626</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.529293718584178</v>
@@ -23559,7 +23295,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.590488906219884</v>
+        <v>1.564247357372152</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.33254664379365</v>
@@ -23648,7 +23384,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.588276089967695</v>
+        <v>1.559979985682886</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.526239012648935</v>
@@ -23737,7 +23473,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.591094603463202</v>
+        <v>1.557400708445913</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.551677702915022</v>
@@ -23826,7 +23562,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.579770074986208</v>
+        <v>1.535687328578509</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.375534688669334</v>
@@ -23915,7 +23651,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.55771607406497</v>
+        <v>1.505029311477635</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.481048110225796</v>
@@ -24004,7 +23740,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.537707714656799</v>
+        <v>1.497128269130468</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.428168022449979</v>
@@ -24093,7 +23829,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.550517811932177</v>
+        <v>1.511125271754504</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.321619958541873</v>
@@ -24182,7 +23918,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.584262410014612</v>
+        <v>1.533075348023495</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.460906064176264</v>
@@ -24271,7 +24007,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.54203487481709</v>
+        <v>1.505614289479879</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.580702994365263</v>
@@ -24360,7 +24096,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.513202948214512</v>
+        <v>1.483462012386596</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.539089438685742</v>
@@ -24449,7 +24185,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.505284202072412</v>
+        <v>1.459699215972532</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.54198698314093</v>
@@ -24538,7 +24274,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.478208578822352</v>
+        <v>1.441340979656077</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.545239634314374</v>
@@ -24627,7 +24363,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.450422059545568</v>
+        <v>1.418028339014799</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.406101581370044</v>
@@ -24716,7 +24452,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.433526194551953</v>
+        <v>1.40410587212</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.481746043936721</v>
@@ -24805,7 +24541,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.44315769224981</v>
+        <v>1.413377110772445</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.542886982934081</v>
@@ -24894,7 +24630,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.431324312758467</v>
+        <v>1.406336025576972</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.458320024092661</v>
@@ -24983,7 +24719,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.42018076113164</v>
+        <v>1.400770771848399</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.521133615309335</v>
@@ -25072,7 +24808,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.411125078853269</v>
+        <v>1.391644132315244</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.503454546566776</v>
@@ -25161,7 +24897,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.401568017422307</v>
+        <v>1.396133889590637</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.476141576706142</v>
@@ -25250,7 +24986,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.417285636273724</v>
+        <v>1.418562514419289</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.306760614726068</v>
@@ -25339,7 +25075,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.425410904085487</v>
+        <v>1.425367683414942</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.503716159079023</v>
@@ -25428,7 +25164,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.420334046652928</v>
+        <v>1.420123434360998</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.401104887245156</v>
@@ -25517,7 +25253,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.404316273847407</v>
+        <v>1.40431645257148</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.466971878155467</v>
@@ -25606,7 +25342,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.435405696053061</v>
+        <v>1.434348093209916</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.33036788384184</v>
@@ -25695,7 +25431,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.430659300405479</v>
+        <v>1.429989589539226</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.360071828268437</v>
@@ -25784,7 +25520,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.45229351529445</v>
+        <v>1.464053534810494</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.394195209195059</v>
@@ -26070,7 +25806,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.545419903907071</v>
+        <v>1.481572325489606</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.191976960315702</v>
@@ -26159,7 +25895,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.542393828430528</v>
+        <v>1.47351951148386</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.111810405137793</v>
@@ -26248,7 +25984,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.519568546400046</v>
+        <v>1.454372742688658</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.193699755503894</v>
@@ -26337,7 +26073,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.518418133911327</v>
+        <v>1.451050295327906</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.128375846003345</v>
@@ -26426,7 +26162,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.513679657103303</v>
+        <v>1.44628614163792</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.121536646075997</v>
@@ -26515,7 +26251,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.504793316053854</v>
+        <v>1.443775869157919</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.152257209277972</v>
@@ -26604,7 +26340,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.492048460422622</v>
+        <v>1.43574500223082</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.133036317853825</v>
@@ -26693,7 +26429,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.494781090199041</v>
+        <v>1.43893421021689</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.176244134033829</v>
@@ -26782,7 +26518,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.519181683838564</v>
+        <v>1.453509424904377</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.092021777177241</v>
@@ -26871,7 +26607,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.515259407106192</v>
+        <v>1.454300615084883</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.306988366999843</v>
@@ -26960,7 +26696,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.503201660056123</v>
+        <v>1.446001887677096</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.337054275347217</v>
@@ -27049,7 +26785,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.49939123072235</v>
+        <v>1.444225450338925</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.343714965742233</v>
@@ -27138,7 +26874,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.51522740142136</v>
+        <v>1.457501204989797</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.263972499533239</v>
@@ -27227,7 +26963,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.503202557548899</v>
+        <v>1.449626181886488</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.209417113082422</v>
@@ -27316,7 +27052,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.499211790316846</v>
+        <v>1.444471598637234</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.232163061596423</v>
@@ -27405,7 +27141,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.507066566552342</v>
+        <v>1.456119478441418</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.3231305411702</v>
@@ -27494,7 +27230,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.514157309082905</v>
+        <v>1.463901430863127</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.236951715298167</v>
@@ -27583,7 +27319,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.536899517044814</v>
+        <v>1.484760846368641</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.276213845539867</v>
@@ -27672,7 +27408,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.52105195721327</v>
+        <v>1.475991616096763</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.421271659009808</v>
@@ -27761,7 +27497,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.519338916717579</v>
+        <v>1.467549717639971</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.467747130311763</v>
@@ -27850,7 +27586,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.531465780618667</v>
+        <v>1.469481631851167</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.198922281988673</v>
@@ -27939,7 +27675,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.545564537647146</v>
+        <v>1.476614675178051</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.296484419825861</v>
@@ -28028,7 +27764,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.548844782822524</v>
+        <v>1.479553382839201</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.38313142104859</v>
@@ -28117,7 +27853,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.557135160045538</v>
+        <v>1.487018457635891</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.459913609050167</v>
@@ -28206,7 +27942,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.581606479399763</v>
+        <v>1.506708718364385</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.567336562069897</v>
@@ -28295,7 +28031,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.591663005201118</v>
+        <v>1.515320125210197</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.352984567663028</v>
@@ -28384,7 +28120,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.599284128692541</v>
+        <v>1.525422074413676</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.490981586287314</v>
@@ -28473,7 +28209,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.606069402428381</v>
+        <v>1.537496500662289</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.268841209647207</v>
@@ -28562,7 +28298,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.628222246137323</v>
+        <v>1.546925932598366</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.520846743645219</v>
@@ -28651,7 +28387,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.613550219185364</v>
+        <v>1.541792180504714</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.316228052601566</v>
@@ -28740,7 +28476,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.612770485458737</v>
+        <v>1.542631453381584</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.294797073137012</v>
@@ -28829,7 +28565,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.614638097219135</v>
+        <v>1.545266763593176</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.835843238994153</v>
@@ -28918,7 +28654,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.610013501900447</v>
+        <v>1.538991907813005</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.611133478768711</v>
@@ -29007,7 +28743,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.639978728955731</v>
+        <v>1.557561074534461</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.784320064147732</v>
@@ -29096,7 +28832,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.650543116980187</v>
+        <v>1.577616813128743</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.846717985854516</v>
@@ -29185,7 +28921,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.646496360346249</v>
+        <v>1.589049448950874</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.855690319999055</v>
@@ -29274,7 +29010,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.649926869649426</v>
+        <v>1.598842595564381</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.667999108825309</v>
@@ -29363,7 +29099,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.619722504717729</v>
+        <v>1.575831431144451</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.53900416712547</v>
@@ -29452,7 +29188,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.584834176516837</v>
+        <v>1.550633195394296</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.528799139274065</v>
@@ -29541,7 +29277,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.589861946669906</v>
+        <v>1.551879483332436</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.569849111460565</v>
@@ -29630,7 +29366,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.588957025186867</v>
+        <v>1.54969938102251</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.463598593485366</v>
@@ -29719,7 +29455,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.585308249098871</v>
+        <v>1.545270393775617</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.48765702647537</v>
@@ -29808,7 +29544,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.589368408983831</v>
+        <v>1.548502982436067</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.444157716376956</v>
@@ -29897,7 +29633,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.582219865161773</v>
+        <v>1.547474119691614</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.316934639810868</v>
@@ -29986,7 +29722,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.579352132404048</v>
+        <v>1.553521244829453</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.395159066133298</v>
@@ -30075,7 +29811,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.572749365009284</v>
+        <v>1.545653104869737</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.50841485279265</v>
@@ -30164,7 +29900,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.544095001613388</v>
+        <v>1.525195677874442</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.540357668394131</v>
@@ -30253,7 +29989,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.547064168267737</v>
+        <v>1.524791551359292</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.371895298169292</v>
@@ -30342,7 +30078,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.543058083137154</v>
+        <v>1.522628244481086</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.440894842480779</v>
@@ -30431,7 +30167,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.539943117736455</v>
+        <v>1.518061430106983</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.434988346791241</v>
@@ -30520,7 +30256,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.555899575473918</v>
+        <v>1.525425625704529</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.421683842325888</v>
@@ -30609,7 +30345,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.557364255732244</v>
+        <v>1.516851022358647</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.397061176765471</v>
@@ -30698,7 +30434,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.584100354612976</v>
+        <v>1.533197527690362</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.268744609963304</v>
@@ -30787,7 +30523,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.567333926932872</v>
+        <v>1.528122689957533</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.396970327050601</v>
@@ -30876,7 +30612,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.569860449642515</v>
+        <v>1.530076194537883</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.497277432901486</v>
@@ -30965,7 +30701,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.571106009503603</v>
+        <v>1.532375498366666</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.588719203393666</v>
@@ -31054,7 +30790,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.564217508051238</v>
+        <v>1.528390932568325</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.497757834153143</v>
@@ -31143,7 +30879,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.568480943737514</v>
+        <v>1.528421074497698</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.587115974913945</v>
@@ -31232,7 +30968,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.585929182148061</v>
+        <v>1.54306452786232</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.411441082147371</v>
@@ -31321,7 +31057,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.61070848509902</v>
+        <v>1.560556124908836</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.496878380166479</v>
@@ -31410,7 +31146,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.599179608561536</v>
+        <v>1.548872368115386</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.66255123303656</v>
@@ -31499,7 +31235,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.611580373231218</v>
+        <v>1.552263812512137</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.548100282341666</v>
@@ -31588,7 +31324,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.610538140089771</v>
+        <v>1.550652024543169</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.521003721443418</v>
@@ -31677,7 +31413,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.617662332111985</v>
+        <v>1.556727681779412</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.60936760883344</v>
@@ -31766,7 +31502,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.610687080298654</v>
+        <v>1.548066502177184</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.67557360820874</v>
@@ -31855,7 +31591,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.588237397672877</v>
+        <v>1.518256170896438</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.561208009001662</v>
@@ -31944,7 +31680,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.558743843101934</v>
+        <v>1.503080720214572</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.581646755869943</v>
@@ -32033,7 +31769,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.567260389608923</v>
+        <v>1.510446477238451</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.450948058423159</v>
@@ -32122,7 +31858,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.595272458565413</v>
+        <v>1.525159296045296</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.689672051277405</v>
@@ -32211,7 +31947,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.558247142084309</v>
+        <v>1.505157423571384</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.716731587888437</v>
@@ -32300,7 +32036,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.540216003682652</v>
+        <v>1.485915646706142</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.750233837955001</v>
@@ -32389,7 +32125,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.53263831489825</v>
+        <v>1.469587373541886</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.758935887785694</v>
@@ -32478,7 +32214,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.507736585967506</v>
+        <v>1.451448354173573</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.689493740557372</v>
@@ -32567,7 +32303,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.487225335562062</v>
+        <v>1.434284873540726</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.72549118458414</v>
@@ -32656,7 +32392,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.478242047750451</v>
+        <v>1.429450192294756</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.695632226164907</v>
@@ -32745,7 +32481,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.490183948027731</v>
+        <v>1.441379406574552</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.701662238889684</v>
@@ -32834,7 +32570,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.488550715901732</v>
+        <v>1.444283732315994</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.634678001429593</v>
@@ -32923,7 +32659,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.474667335691651</v>
+        <v>1.438107557560574</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.716254285526928</v>
@@ -33012,7 +32748,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.471226430955842</v>
+        <v>1.433119964033619</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.597587121818824</v>
@@ -33101,7 +32837,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.465845121594243</v>
+        <v>1.434018028389016</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.591704297656745</v>
@@ -33190,7 +32926,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.48490894082577</v>
+        <v>1.451816905481276</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.500894799956956</v>
@@ -33279,7 +33015,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.491477883019066</v>
+        <v>1.455980284460727</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.670287849119029</v>
@@ -33368,7 +33104,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.489118414304814</v>
+        <v>1.45602374694432</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.619790618169973</v>
@@ -33457,7 +33193,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.475910455800911</v>
+        <v>1.445553551972355</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.675167920889427</v>
@@ -33546,7 +33282,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.504596081182645</v>
+        <v>1.469026520668188</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.484965311479193</v>
@@ -33635,7 +33371,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.496804507975916</v>
+        <v>1.465890571061286</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.516471367876186</v>
@@ -33724,7 +33460,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.525985054146341</v>
+        <v>1.492910170897124</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.614184890028472</v>
@@ -34010,7 +33746,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.602228275329463</v>
+        <v>1.543938215309605</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.292604572389216</v>
@@ -34099,7 +33835,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.600381134117087</v>
+        <v>1.533575712674796</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.189728247512779</v>
@@ -34188,7 +33924,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.57267321524224</v>
+        <v>1.506851554199561</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.252950113126687</v>
@@ -34277,7 +34013,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.567992197815981</v>
+        <v>1.500758325325947</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.240291159551802</v>
@@ -34366,7 +34102,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.556658204886081</v>
+        <v>1.484263376594994</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.226779272230567</v>
@@ -34455,7 +34191,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.539215464651681</v>
+        <v>1.469792112216375</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.206985293275465</v>
@@ -34544,7 +34280,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.519509498185412</v>
+        <v>1.450706941119192</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.239892280772012</v>
@@ -34633,7 +34369,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.521248127477012</v>
+        <v>1.452714159955203</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.261121947408018</v>
@@ -34722,7 +34458,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.543880470379474</v>
+        <v>1.469384859712823</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.157699876428872</v>
@@ -34811,7 +34547,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.525308973521176</v>
+        <v>1.457474623886239</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.283471805827588</v>
@@ -34900,7 +34636,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.509532341515987</v>
+        <v>1.442135360720561</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.348053019241327</v>
@@ -34989,7 +34725,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.50779172978693</v>
+        <v>1.439773354240872</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.327379854966015</v>
@@ -35078,7 +34814,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.524599584697176</v>
+        <v>1.446788091622146</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.28586245147762</v>
@@ -35167,7 +34903,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.497082204414489</v>
+        <v>1.426953829252713</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.326186544125552</v>
@@ -35256,7 +34992,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.486953670018639</v>
+        <v>1.416076999832208</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.279768267660838</v>
@@ -35345,7 +35081,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.491293014454706</v>
+        <v>1.424609304092661</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.360096844976456</v>
@@ -35434,7 +35170,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.503364443574738</v>
+        <v>1.437342268609162</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.300230428846457</v>
@@ -35523,7 +35259,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.533500525444487</v>
+        <v>1.468549495501304</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.278163045747811</v>
@@ -35612,7 +35348,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.516630139275778</v>
+        <v>1.460971484241601</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.444920610001188</v>
@@ -35701,7 +35437,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.511334480663399</v>
+        <v>1.453809736108918</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.403870189083704</v>
@@ -35790,7 +35526,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.518966175888278</v>
+        <v>1.449301094893203</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.243210578281397</v>
@@ -35879,7 +35615,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.520845375080313</v>
+        <v>1.446828239364911</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.295730537544956</v>
@@ -35968,7 +35704,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.513911697891551</v>
+        <v>1.433272484164596</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.446154434813853</v>
@@ -36057,7 +35793,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.518025116379593</v>
+        <v>1.438473292003166</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.632066674035585</v>
@@ -36146,7 +35882,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.546515666235356</v>
+        <v>1.464085414991734</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.675192525645619</v>
@@ -36235,7 +35971,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.550323958567831</v>
+        <v>1.468983733938329</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.456564019905787</v>
@@ -36324,7 +36060,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.556436243142389</v>
+        <v>1.478620576858896</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.580863958815894</v>
@@ -36413,7 +36149,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.569307174555981</v>
+        <v>1.499341607209925</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.396900753249791</v>
@@ -36502,7 +36238,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.595066921707663</v>
+        <v>1.520277186390407</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.61920945619072</v>
@@ -36591,7 +36327,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.588670766805885</v>
+        <v>1.525844721478107</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.440337298228207</v>
@@ -36680,7 +36416,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.590216149403564</v>
+        <v>1.529271554189202</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.404066553475751</v>
@@ -36769,7 +36505,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.588293849485057</v>
+        <v>1.530061136697353</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.911261402225486</v>
@@ -36858,7 +36594,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.582500966099171</v>
+        <v>1.519886757172431</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.687357057525011</v>
@@ -36947,7 +36683,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.612978354065558</v>
+        <v>1.534343240248359</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.686431499062445</v>
@@ -37036,7 +36772,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.631031225519859</v>
+        <v>1.558357408990628</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.802071334199221</v>
@@ -37125,7 +36861,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.645566589451932</v>
+        <v>1.582436158828035</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.786102407526313</v>
@@ -37214,7 +36950,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.666808098621458</v>
+        <v>1.607873861711352</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.856538793999105</v>
@@ -37303,7 +37039,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.659581627595605</v>
+        <v>1.618224498179036</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.521175443050048</v>
@@ -37392,7 +37128,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.621705990608685</v>
+        <v>1.586118056183752</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.555384747465908</v>
@@ -37481,7 +37217,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.622224311286192</v>
+        <v>1.588163480116977</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.545717901946422</v>
@@ -37570,7 +37306,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.620682921529051</v>
+        <v>1.58776248467988</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.582460925184185</v>
@@ -37659,7 +37395,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.6170545421447</v>
+        <v>1.58168029184747</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.466882491474233</v>
@@ -37748,7 +37484,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.61582585645729</v>
+        <v>1.577562991102487</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.498746080777688</v>
@@ -37837,7 +37573,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.606962514799131</v>
+        <v>1.568843832293322</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.527309236618337</v>
@@ -37926,7 +37662,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.601398552654476</v>
+        <v>1.567702758893788</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.510365018430748</v>
@@ -38015,7 +37751,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.595026333439673</v>
+        <v>1.563650415426417</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.505020369569519</v>
@@ -38104,7 +37840,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.558793784342413</v>
+        <v>1.533501427110207</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.512335536551247</v>
@@ -38193,7 +37929,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.552314769735613</v>
+        <v>1.531096443544968</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.516026429797477</v>
@@ -38282,7 +38018,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.557868929548713</v>
+        <v>1.537215752130958</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.410842820058256</v>
@@ -38371,7 +38107,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.550895688745922</v>
+        <v>1.53003640307906</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.627964249812632</v>
@@ -38460,7 +38196,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.56039105660951</v>
+        <v>1.538288358293205</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.656771166973051</v>
@@ -38549,7 +38285,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.553419399956495</v>
+        <v>1.528179176198178</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.503798915531216</v>
@@ -38638,7 +38374,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.564447737150043</v>
+        <v>1.523843385741974</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.298531394280378</v>
@@ -38727,7 +38463,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.553630794809535</v>
+        <v>1.523111397334087</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.595959564056011</v>
@@ -38816,7 +38552,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.554725446874296</v>
+        <v>1.522421111269197</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.634184965760205</v>
@@ -38905,7 +38641,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.551795792412759</v>
+        <v>1.52224787203295</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.671753217568451</v>
@@ -38994,7 +38730,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.557093886541357</v>
+        <v>1.528626434516531</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.623556287970898</v>
@@ -39083,7 +38819,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.559140481942821</v>
+        <v>1.529707065309384</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.544176727579255</v>
@@ -39172,7 +38908,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.571832183357792</v>
+        <v>1.536201067882336</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.434145810494053</v>
@@ -39261,7 +38997,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.579485336399947</v>
+        <v>1.529955143915382</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.597109617191434</v>
@@ -39350,7 +39086,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.572507337056212</v>
+        <v>1.521817689090522</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.610115475084063</v>
@@ -39439,7 +39175,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.587185766288728</v>
+        <v>1.526240470635212</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.73874993436588</v>
@@ -39528,7 +39264,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.579827948745656</v>
+        <v>1.519827327745591</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.635983196472427</v>
@@ -39617,7 +39353,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.58340491015133</v>
+        <v>1.522560351797172</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.727076422979111</v>
@@ -39706,7 +39442,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.584866302142356</v>
+        <v>1.522205684046334</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.471113798687067</v>
@@ -39795,7 +39531,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.566019864347196</v>
+        <v>1.493974571035305</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.575098636812061</v>
@@ -39884,7 +39620,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.541660742088269</v>
+        <v>1.482980955218515</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.709081751386015</v>
@@ -39973,7 +39709,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.546014739901957</v>
+        <v>1.487154241848992</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.3407885279707</v>
@@ -40062,7 +39798,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.569775499968484</v>
+        <v>1.502132750601781</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.578717491987205</v>
@@ -40151,7 +39887,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.534170420706705</v>
+        <v>1.47962464269148</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.629240525230667</v>
@@ -40240,7 +39976,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.518758784288625</v>
+        <v>1.465466903094306</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.751518049577057</v>
@@ -40329,7 +40065,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.504698088772166</v>
+        <v>1.44186028664931</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.57250862832622</v>
@@ -40418,7 +40154,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.478409843214775</v>
+        <v>1.423302209273652</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.729546339733627</v>
@@ -40507,7 +40243,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.467298938428903</v>
+        <v>1.417674660072233</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.565814292638748</v>
@@ -40596,7 +40332,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.46494997795784</v>
+        <v>1.425566377059065</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.669259619788179</v>
@@ -40685,7 +40421,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.46987406926126</v>
+        <v>1.430621090648334</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.652845586965384</v>
@@ -40774,7 +40510,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.473833025387936</v>
+        <v>1.441216402361372</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.543200911124944</v>
@@ -40863,7 +40599,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.468099954940059</v>
+        <v>1.439888985225393</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.663379625916146</v>
@@ -40952,7 +40688,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.460513371047617</v>
+        <v>1.434824855836542</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.628236501975968</v>
@@ -41041,7 +40777,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.451573818220975</v>
+        <v>1.431918176476192</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.675214550578714</v>
@@ -41130,7 +40866,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.461239587504324</v>
+        <v>1.445959458434734</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.453179382246682</v>
@@ -41219,7 +40955,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.477706454429603</v>
+        <v>1.462056214349261</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.672510495710664</v>
@@ -41308,7 +41044,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.482933890265848</v>
+        <v>1.467442423239083</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.596590176348453</v>
@@ -41397,7 +41133,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.472440553364132</v>
+        <v>1.460788690621228</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.540834935313537</v>
@@ -41486,7 +41222,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.51269261662123</v>
+        <v>1.495839340438146</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.385781643342731</v>
@@ -41575,7 +41311,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.502880850796455</v>
+        <v>1.488510684541972</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.645107327798842</v>
@@ -41664,7 +41400,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.533189048766741</v>
+        <v>1.520268154981173</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.902045469664415</v>
@@ -41950,7 +41686,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.260428007746351</v>
+        <v>1.222645511699261</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.657048625149515</v>
@@ -42039,7 +41775,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.250452422820043</v>
+        <v>1.217623430263895</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.580922043709297</v>
@@ -42128,7 +41864,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.224895527612608</v>
+        <v>1.193083898682876</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.642469355889368</v>
@@ -42217,7 +41953,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.22032838556774</v>
+        <v>1.18954277605907</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.635075469831566</v>
@@ -42306,7 +42042,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.217623426418202</v>
+        <v>1.186906300914615</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.630652662350254</v>
@@ -42395,7 +42131,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.209874239456361</v>
+        <v>1.176794776133444</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.653519487271604</v>
@@ -42484,7 +42220,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.196426157417286</v>
+        <v>1.163090649851305</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.680689524744615</v>
@@ -42573,7 +42309,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.199747629397003</v>
+        <v>1.165971035023793</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.690816301207855</v>
@@ -42662,7 +42398,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.238099249633519</v>
+        <v>1.199813817469369</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.635742749871584</v>
@@ -42751,7 +42487,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.227091324751861</v>
+        <v>1.189795474951246</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.7369629094836</v>
@@ -42840,7 +42576,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.206582774707583</v>
+        <v>1.164900030335218</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.750885451625148</v>
@@ -42929,7 +42665,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.210101137511832</v>
+        <v>1.167482857151296</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.75452275198784</v>
@@ -43018,7 +42754,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.233256766413261</v>
+        <v>1.192053298150258</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.677092062487008</v>
@@ -43107,7 +42843,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.208058215083333</v>
+        <v>1.165670887225139</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.740248307170397</v>
@@ -43196,7 +42932,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.206854433106507</v>
+        <v>1.164850349793071</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.739002948560543</v>
@@ -43285,7 +43021,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.199615562704555</v>
+        <v>1.158436160132278</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.730378909255193</v>
@@ -43374,7 +43110,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.200483340769796</v>
+        <v>1.159297363547311</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.676784277103143</v>
@@ -43463,7 +43199,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.223152453377686</v>
+        <v>1.181390994134065</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.614117513683092</v>
@@ -43552,7 +43288,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.206173466431453</v>
+        <v>1.164135957971532</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.700043158071365</v>
@@ -43641,7 +43377,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.20301961965987</v>
+        <v>1.161194228854162</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.711184667335113</v>
@@ -43730,7 +43466,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.220307649250702</v>
+        <v>1.176018630904006</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.610244874415478</v>
@@ -43819,7 +43555,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.234439514555009</v>
+        <v>1.191134847307114</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.628681684866741</v>
@@ -43908,7 +43644,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.235460114816863</v>
+        <v>1.191689425526295</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.649367051340795</v>
@@ -43997,7 +43733,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.221078080160228</v>
+        <v>1.179434041528168</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.790699973979287</v>
@@ -44086,7 +43822,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.231860992968949</v>
+        <v>1.206295063613848</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.672251157605764</v>
@@ -44175,7 +43911,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.245704809053409</v>
+        <v>1.221056404329661</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.687766694286363</v>
@@ -44264,7 +44000,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.24745814535683</v>
+        <v>1.224444783485615</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.672940630169095</v>
@@ -44353,7 +44089,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.265279071772573</v>
+        <v>1.242807697909781</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.562800408293448</v>
@@ -44442,7 +44178,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.329016730568194</v>
+        <v>1.309553404351276</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.649840663812161</v>
@@ -44531,7 +44267,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.263030468840199</v>
+        <v>1.243493727171094</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.688476560517177</v>
@@ -44620,7 +44356,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.251398479413495</v>
+        <v>1.23731937107761</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.701587290712992</v>
@@ -44709,7 +44445,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.246999657130419</v>
+        <v>1.234246446556913</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.691194714703902</v>
@@ -44798,7 +44534,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.263810501528995</v>
+        <v>1.247176183796764</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.65385011235211</v>
@@ -44887,7 +44623,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.347739374640945</v>
+        <v>1.342110349159018</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.633099780637451</v>
@@ -44976,7 +44712,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.357712409732802</v>
+        <v>1.353285708672427</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.624672385708613</v>
@@ -45065,7 +44801,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.357001823344386</v>
+        <v>1.355696446157947</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.616355184492142</v>
@@ -45154,7 +44890,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.345998264228142</v>
+        <v>1.343590438481403</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.609323276744561</v>
@@ -45243,7 +44979,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.326665893961326</v>
+        <v>1.311415291575381</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.560227469720285</v>
@@ -45332,7 +45068,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.271914450771405</v>
+        <v>1.25309037840088</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.615517789068064</v>
@@ -45421,7 +45157,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.268471765320239</v>
+        <v>1.250074599536193</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.621309239743681</v>
@@ -45510,7 +45246,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.267823639579708</v>
+        <v>1.248384836948105</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.609589206277181</v>
@@ -45599,7 +45335,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.268008004431927</v>
+        <v>1.2473168497746</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.612437296986236</v>
@@ -45688,7 +45424,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.265960044671221</v>
+        <v>1.24564926107936</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.622130662708267</v>
@@ -45777,7 +45513,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.258157583342721</v>
+        <v>1.234700504644507</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.626436140412304</v>
@@ -45866,7 +45602,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.252233423992501</v>
+        <v>1.230118209928534</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.625059991031591</v>
@@ -45955,7 +45691,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.251797934302843</v>
+        <v>1.219018789924151</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.655063282251145</v>
@@ -46044,7 +45780,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.206997731198252</v>
+        <v>1.183931735896193</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.697258704312516</v>
@@ -46133,7 +45869,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.200567230714726</v>
+        <v>1.177791477033304</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.694928899625104</v>
@@ -46222,7 +45958,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.199236522825853</v>
+        <v>1.176466475035108</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.697958778546232</v>
@@ -46311,7 +46047,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.19811106658512</v>
+        <v>1.175111519612097</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.696050484092337</v>
@@ -46400,7 +46136,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.201540410711133</v>
+        <v>1.178446513701304</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.693026355469629</v>
@@ -46489,7 +46225,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.205764646528064</v>
+        <v>1.1817632138653</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.710943072260305</v>
@@ -46578,7 +46314,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.210308859295427</v>
+        <v>1.17445405342129</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.583051832738102</v>
@@ -46667,7 +46403,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.168733648542739</v>
+        <v>1.151503901712626</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.718067128005297</v>
@@ -46756,7 +46492,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.164478242209734</v>
+        <v>1.147429065861536</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.735891785874596</v>
@@ -46845,7 +46581,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.162485821391305</v>
+        <v>1.146315048458862</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.736830721786464</v>
@@ -46934,7 +46670,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.163429776840851</v>
+        <v>1.148310921441764</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.734322637017429</v>
@@ -47023,7 +46759,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.166930006729046</v>
+        <v>1.151339703823615</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.742025485007643</v>
@@ -47112,7 +46848,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.184975604854536</v>
+        <v>1.169086325890188</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.638977793612154</v>
@@ -47201,7 +46937,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.20683648450151</v>
+        <v>1.192394227320184</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.667359065523555</v>
@@ -47290,7 +47026,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.195964690905087</v>
+        <v>1.187364416624017</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.683550819558621</v>
@@ -47379,7 +47115,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.229884707090959</v>
+        <v>1.222862857892735</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.648024841432381</v>
@@ -47468,7 +47204,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.237128114778413</v>
+        <v>1.230045233698648</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.664573454743892</v>
@@ -47557,7 +47293,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.2357260314276</v>
+        <v>1.229415336096231</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.674683938898486</v>
@@ -47646,7 +47382,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.22916218641971</v>
+        <v>1.217860012260518</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.721658417045233</v>
@@ -47735,7 +47471,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.233806170663541</v>
+        <v>1.195514882727507</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.779845353228259</v>
@@ -47824,7 +47560,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.188740989696205</v>
+        <v>1.170380544052387</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.793416011330553</v>
@@ -47913,7 +47649,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.200455870515617</v>
+        <v>1.179795681875192</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.681371670529404</v>
@@ -48002,7 +47738,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.237594425625545</v>
+        <v>1.20976958954511</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.691956430281901</v>
@@ -48091,7 +47827,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.21452348786464</v>
+        <v>1.195319712096843</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.825114401659315</v>
@@ -48180,7 +47916,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.17631490919578</v>
+        <v>1.15231298604961</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.866368361163796</v>
@@ -48269,7 +48005,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.222943343205294</v>
+        <v>1.178358749315199</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.926142226439285</v>
@@ -48358,7 +48094,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.194291762041754</v>
+        <v>1.154117663944918</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.955735482809557</v>
@@ -48447,7 +48183,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.180874551511148</v>
+        <v>1.143536199654236</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.915982928854185</v>
@@ -48536,7 +48272,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.172751682657713</v>
+        <v>1.137560375586802</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.012849360872825</v>
@@ -48625,7 +48361,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.175181171650785</v>
+        <v>1.140348798182984</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.976715534207106</v>
@@ -48714,7 +48450,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.181952387224199</v>
+        <v>1.15039862948902</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.990622965016452</v>
@@ -48803,7 +48539,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.162419169325581</v>
+        <v>1.130069609447173</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.014793924724291</v>
@@ -48892,7 +48628,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.161886465317704</v>
+        <v>1.12565261775919</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.000509995715768</v>
@@ -48981,7 +48717,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.153690998898386</v>
+        <v>1.122817756505984</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.008504562218683</v>
@@ -49070,7 +48806,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.15693242892093</v>
+        <v>1.127885894348249</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.84594495621907</v>
@@ -49159,7 +48895,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.161070178622652</v>
+        <v>1.132167475202984</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.965843356971303</v>
@@ -49248,7 +48984,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.159346998712697</v>
+        <v>1.131188004651325</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.934801227181005</v>
@@ -49337,7 +49073,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.152066412756188</v>
+        <v>1.123946737993121</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.928115997718585</v>
@@ -49426,7 +49162,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.161756521145473</v>
+        <v>1.135127493907415</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.813882151454191</v>
@@ -49515,7 +49251,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.159353312369145</v>
+        <v>1.135627703270089</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.88580356046667</v>
@@ -49604,7 +49340,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.135147874018722</v>
+        <v>1.127281715500341</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.921251713783781</v>
@@ -49890,7 +49626,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.448525120197329</v>
+        <v>1.38851832689532</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.158457124391381</v>
@@ -49979,7 +49715,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.444130500022279</v>
+        <v>1.381393763561843</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.109458562047372</v>
@@ -50068,7 +49804,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.443157424371911</v>
+        <v>1.377224222413001</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.146675850771375</v>
@@ -50157,7 +49893,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.456417548359406</v>
+        <v>1.386263514859336</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.082771606165815</v>
@@ -50246,7 +49982,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.456398760716626</v>
+        <v>1.383724452043363</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.129988911627148</v>
@@ -50335,7 +50071,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.436296331673065</v>
+        <v>1.371571420483955</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.087667316855588</v>
@@ -50424,7 +50160,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.418943673699927</v>
+        <v>1.356572667566905</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.089574200720714</v>
@@ -50513,7 +50249,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.426022762545124</v>
+        <v>1.365832775077952</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.180533408408648</v>
@@ -50602,7 +50338,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.451950828175687</v>
+        <v>1.388901171697406</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.079427672890476</v>
@@ -50691,7 +50427,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.451220511755925</v>
+        <v>1.389632796303409</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.260917432439856</v>
@@ -50780,7 +50516,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.434165053947889</v>
+        <v>1.374176771252417</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.214894466525746</v>
@@ -50869,7 +50605,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.430643947702026</v>
+        <v>1.369258324320522</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.27749030565887</v>
@@ -50958,7 +50694,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.445383967723741</v>
+        <v>1.377957808454982</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.137206667261533</v>
@@ -51047,7 +50783,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.424284191943195</v>
+        <v>1.362357605064536</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.256583324521911</v>
@@ -51136,7 +50872,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.420040609629116</v>
+        <v>1.36199911821139</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.246537857391013</v>
@@ -51225,7 +50961,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.4308674983548</v>
+        <v>1.373166852054686</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.255445643580938</v>
@@ -51314,7 +51050,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.433595492850224</v>
+        <v>1.385850517515089</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.251379535642333</v>
@@ -51403,7 +51139,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.44823122006457</v>
+        <v>1.401850754341144</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.265879669890971</v>
@@ -51492,7 +51228,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.420356766007197</v>
+        <v>1.379980599457001</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.332231134386106</v>
@@ -51581,7 +51317,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.426432235959761</v>
+        <v>1.380280342273567</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.342449855841276</v>
@@ -51670,7 +51406,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.444453309312966</v>
+        <v>1.38555471329717</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.196797610631148</v>
@@ -51759,7 +51495,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.445037520011685</v>
+        <v>1.386251675030636</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.296507082467856</v>
@@ -51848,7 +51584,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.441222195931603</v>
+        <v>1.376171117649834</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.440468265890699</v>
@@ -51937,7 +51673,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.445968957433316</v>
+        <v>1.383105069556633</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.439278723327329</v>
@@ -52026,7 +51762,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.463845777620098</v>
+        <v>1.401206658121574</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.536338072124322</v>
@@ -52115,7 +51851,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.470009096398417</v>
+        <v>1.408423612093057</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.354400035985681</v>
@@ -52204,7 +51940,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.479219269423336</v>
+        <v>1.424451338249634</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.374342237447132</v>
@@ -52293,7 +52029,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.487203885030964</v>
+        <v>1.435238971446229</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.23934486408375</v>
@@ -52382,7 +52118,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.503846008888136</v>
+        <v>1.449587748086396</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.44529367966657</v>
@@ -52471,7 +52207,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.500024526387826</v>
+        <v>1.451834270489206</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.30037620166497</v>
@@ -52560,7 +52296,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.509673708830347</v>
+        <v>1.463333251667378</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.205404276502171</v>
@@ -52649,7 +52385,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.508028699130951</v>
+        <v>1.456486120087813</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.473789226908048</v>
@@ -52738,7 +52474,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.519912172177797</v>
+        <v>1.46266066377216</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.401549691638747</v>
@@ -52827,7 +52563,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.564183253501856</v>
+        <v>1.502089925455411</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.711364848631768</v>
@@ -52916,7 +52652,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.569235008737239</v>
+        <v>1.51554265405294</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.911786979730158</v>
@@ -53005,7 +52741,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.575975043862488</v>
+        <v>1.539069098846607</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.648389895699646</v>
@@ -53094,7 +52830,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.586909931132914</v>
+        <v>1.548471992253152</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.062081955085864</v>
@@ -53183,7 +52919,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.578700107471579</v>
+        <v>1.547046527730086</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.348020320150688</v>
@@ -53272,7 +53008,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.547806280194634</v>
+        <v>1.516298499221098</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.390220347526129</v>
@@ -53361,7 +53097,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.549454278779933</v>
+        <v>1.516873051464763</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.256492560226087</v>
@@ -53450,7 +53186,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.552067936570963</v>
+        <v>1.521753083408077</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.357658565838693</v>
@@ -53539,7 +53275,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.560791477900849</v>
+        <v>1.526962787149188</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.29114478093411</v>
@@ -53628,7 +53364,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.558546865409786</v>
+        <v>1.520617900690938</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.265490612060314</v>
@@ -53717,7 +53453,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.551545451230134</v>
+        <v>1.516079645879246</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.278096693856699</v>
@@ -53806,7 +53542,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.552488823299822</v>
+        <v>1.513320968402461</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.396241996349892</v>
@@ -53895,7 +53631,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.552575098701578</v>
+        <v>1.509908331729456</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.356249220575398</v>
@@ -53984,7 +53720,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.517973031699091</v>
+        <v>1.486895808688233</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.439874225401125</v>
@@ -54073,7 +53809,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.526833109497021</v>
+        <v>1.495908972449768</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.255118269887453</v>
@@ -54162,7 +53898,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.527935946368881</v>
+        <v>1.495212421465686</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.275763519644414</v>
@@ -54251,7 +53987,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.525670527333616</v>
+        <v>1.496254363208955</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.341805353628825</v>
@@ -54340,7 +54076,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.532483658538055</v>
+        <v>1.499329204449436</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.332079162727144</v>
@@ -54429,7 +54165,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.526292005586861</v>
+        <v>1.497081125389339</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.369590159144503</v>
@@ -54518,7 +54254,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.538153992933065</v>
+        <v>1.501615813451398</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.18457439112684</v>
@@ -54607,7 +54343,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.530320536984684</v>
+        <v>1.504625667181781</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.574404044810261</v>
@@ -54696,7 +54432,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.529912192067453</v>
+        <v>1.505693881128404</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.56837617562917</v>
@@ -54785,7 +54521,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.528500700273355</v>
+        <v>1.50382165220824</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.586522154089414</v>
@@ -54874,7 +54610,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.525558770814672</v>
+        <v>1.501557902208978</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.462014855803383</v>
@@ -54963,7 +54699,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.531233403599019</v>
+        <v>1.509496361413028</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.480019663076276</v>
@@ -55052,7 +54788,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.542250849577983</v>
+        <v>1.517267440987433</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.361102964260258</v>
@@ -55141,7 +54877,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.551531891939046</v>
+        <v>1.519924161627575</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.622673922171943</v>
@@ -55230,7 +54966,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.525100651706284</v>
+        <v>1.491662734333738</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.557258497788901</v>
@@ -55319,7 +55055,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.541924188356656</v>
+        <v>1.499734164359283</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.499422329001348</v>
@@ -55408,7 +55144,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.533702105725352</v>
+        <v>1.492023682626419</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.580709338767997</v>
@@ -55497,7 +55233,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.536013131777126</v>
+        <v>1.49623035070559</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.633825393667614</v>
@@ -55586,7 +55322,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.539658877101265</v>
+        <v>1.493419106374731</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.573378753725224</v>
@@ -55675,7 +55411,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.532572777228982</v>
+        <v>1.475973212630095</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.600206884498419</v>
@@ -55764,7 +55500,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.515626222740486</v>
+        <v>1.469391952193186</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.554073717851908</v>
@@ -55853,7 +55589,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.524877424236105</v>
+        <v>1.481140272768724</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.415453644854705</v>
@@ -55942,7 +55678,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.542906325905212</v>
+        <v>1.491893578086227</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.700840937847087</v>
@@ -56031,7 +55767,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.530871202544656</v>
+        <v>1.485984163125778</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.667149850517065</v>
@@ -56120,7 +55856,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.511680629229111</v>
+        <v>1.466677750890604</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.629242944725018</v>
@@ -56209,7 +55945,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.511942648832746</v>
+        <v>1.457727844612329</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.573792806135603</v>
@@ -56298,7 +56034,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.488136040321818</v>
+        <v>1.438797779197504</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.645737548894215</v>
@@ -56387,7 +56123,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.477621308279646</v>
+        <v>1.433574555181956</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.586124386142162</v>
@@ -56476,7 +56212,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.471648504105971</v>
+        <v>1.432962740776491</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.566250921950646</v>
@@ -56565,7 +56301,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.487418274411612</v>
+        <v>1.45026980812419</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.478830658698738</v>
@@ -56654,7 +56390,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.489657127858412</v>
+        <v>1.457060984064373</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.545882376254544</v>
@@ -56743,7 +56479,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.480717605889731</v>
+        <v>1.452210809023941</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.620727227662199</v>
@@ -56832,7 +56568,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.470575076695599</v>
+        <v>1.440853292141445</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.646860667662517</v>
@@ -56921,7 +56657,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.457174282519361</v>
+        <v>1.432710027821311</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.574714054642672</v>
@@ -57010,7 +56746,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.467919571990737</v>
+        <v>1.442426421387935</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.412826655438838</v>
@@ -57099,7 +56835,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.473599842121734</v>
+        <v>1.448591971142778</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.546196572471775</v>
@@ -57188,7 +56924,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.470407945758083</v>
+        <v>1.446170348422242</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.444557620282365</v>
@@ -57277,7 +57013,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.460816708979181</v>
+        <v>1.437966465763962</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.493598427536443</v>
@@ -57366,7 +57102,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.481154179151293</v>
+        <v>1.454831182245927</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.406815408190267</v>
@@ -57455,7 +57191,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.47702511652487</v>
+        <v>1.45583362719688</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.527682711266126</v>
@@ -57544,7 +57280,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.485101756127715</v>
+        <v>1.46667754122962</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.81730531279715</v>
